--- a/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
+++ b/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
@@ -1054,31 +1054,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9213646665651177</v>
+        <v>0.9220861806132615</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07863533343488234</v>
+        <v>0.07791381938673846</v>
       </c>
       <c r="K4">
-        <v>0.1921824602052854</v>
+        <v>0.1929039742534292</v>
       </c>
       <c r="L4">
         <v>-0.07791609036422315</v>
       </c>
       <c r="M4">
-        <v>-0.1142663698410622</v>
+        <v>-0.1149878838892061</v>
       </c>
       <c r="N4">
-        <v>0.1921824602052854</v>
+        <v>0.1929039742534292</v>
       </c>
       <c r="O4">
-        <v>0.3843649204105708</v>
+        <v>0.3858079485068585</v>
       </c>
       <c r="P4">
-        <v>0.004293441053064723</v>
+        <v>0.004257378141351654</v>
       </c>
       <c r="Q4" t="s">
         <v>102</v>
@@ -1160,31 +1160,31 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.06454140154445284</v>
+        <v>0.06514783070414157</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.935458598455547</v>
+        <v>0.9348521692958586</v>
       </c>
       <c r="K6">
-        <v>-0.1056898924638541</v>
+        <v>-0.1050834633041654</v>
       </c>
       <c r="L6">
         <v>-0.06498363721365123</v>
       </c>
       <c r="M6">
-        <v>0.1706735296775054</v>
+        <v>0.1700671005178169</v>
       </c>
       <c r="N6">
-        <v>0.1706735296775054</v>
+        <v>0.1700671005178169</v>
       </c>
       <c r="O6">
-        <v>0.3413470593550108</v>
+        <v>0.3401342010356336</v>
       </c>
       <c r="P6">
-        <v>0.003577825720363295</v>
+        <v>0.003609101680514727</v>
       </c>
       <c r="Q6" t="s">
         <v>103</v>
@@ -1222,19 +1222,19 @@
         <v>0.7647850687780416</v>
       </c>
       <c r="K7">
-        <v>0.1056898924638541</v>
+        <v>0.1050834633041654</v>
       </c>
       <c r="L7">
         <v>0.06498363721365123</v>
       </c>
       <c r="M7">
-        <v>-0.1706735296775054</v>
+        <v>-0.1700671005178169</v>
       </c>
       <c r="N7">
-        <v>0.1706735296775054</v>
+        <v>0.1700671005178169</v>
       </c>
       <c r="O7">
-        <v>0.3413470593550108</v>
+        <v>0.3401342010356336</v>
       </c>
       <c r="P7">
         <v>0.01131562168915283</v>
@@ -1478,31 +1478,31 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.07659591561151222</v>
+        <v>0.07730624851993613</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9234040843884878</v>
+        <v>0.9226937514800638</v>
       </c>
       <c r="K12">
-        <v>-0.1178885908738359</v>
+        <v>-0.1171782579654119</v>
       </c>
       <c r="L12">
         <v>-0.0787655458314141</v>
       </c>
       <c r="M12">
-        <v>0.1966541367052499</v>
+        <v>0.195943803796826</v>
       </c>
       <c r="N12">
-        <v>0.1966541367052499</v>
+        <v>0.195943803796826</v>
       </c>
       <c r="O12">
-        <v>0.3933082734104998</v>
+        <v>0.391887607593652</v>
       </c>
       <c r="P12">
-        <v>0.003143510281028726</v>
+        <v>0.003170221887098223</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1902,31 +1902,31 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>0.05337805530296671</v>
+        <v>0.05287498857090157</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9466219446970333</v>
+        <v>0.9471250114290984</v>
       </c>
       <c r="K20">
-        <v>-0.0885191334191098</v>
+        <v>-0.08902220015117496</v>
       </c>
       <c r="L20">
         <v>-0.04625655698617073</v>
       </c>
       <c r="M20">
-        <v>0.1347756904052806</v>
+        <v>0.1352787571373457</v>
       </c>
       <c r="N20">
-        <v>0.1347756904052806</v>
+        <v>0.1352787571373457</v>
       </c>
       <c r="O20">
-        <v>0.2695513808105611</v>
+        <v>0.2705575142746914</v>
       </c>
       <c r="P20">
-        <v>0.002245726156224006</v>
+        <v>0.002225743295756826</v>
       </c>
       <c r="Q20" t="s">
         <v>108</v>
@@ -1955,31 +1955,31 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>0.01786670756509156</v>
+        <v>0.01769202249120875</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9821332924349085</v>
+        <v>0.9823079775087912</v>
       </c>
       <c r="K21">
-        <v>-0.03551134773787515</v>
+        <v>-0.03518296607969282</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.03551134773787523</v>
+        <v>0.03518296607969273</v>
       </c>
       <c r="N21">
-        <v>0.03551134773787523</v>
+        <v>0.03518296607969282</v>
       </c>
       <c r="O21">
-        <v>0.07102269547575038</v>
+        <v>0.07036593215938555</v>
       </c>
       <c r="P21">
-        <v>0.0007798883700388894</v>
+        <v>0.0007724006591724157</v>
       </c>
       <c r="Q21" t="s">
         <v>108</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05576890521353835</v>
+        <v>0.05576890521353836</v>
       </c>
       <c r="K23">
         <v>0.1488232400187027</v>
@@ -2076,7 +2076,7 @@
         <v>-0.05303030303030304</v>
       </c>
       <c r="M23">
-        <v>-0.09579293698839968</v>
+        <v>-0.09579293698839966</v>
       </c>
       <c r="N23">
         <v>0.1488232400187027</v>
@@ -2085,7 +2085,7 @@
         <v>0.2976464800374055</v>
       </c>
       <c r="P23">
-        <v>0.002340388196658744</v>
+        <v>0.002340388196658745</v>
       </c>
       <c r="Q23" t="s">
         <v>109</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-0.03707058713972226</v>
+        <v>-0.03707058713972228</v>
       </c>
       <c r="N24">
         <v>0.03707058713972233</v>
       </c>
       <c r="O24">
-        <v>0.0741411742794446</v>
+        <v>0.07414117427944461</v>
       </c>
       <c r="P24">
         <v>0.0008154973766678433</v>
@@ -2273,31 +2273,31 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>0.01886013268929254</v>
+        <v>0.01904608093870787</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.9811398673107073</v>
+        <v>0.980953919061292</v>
       </c>
       <c r="K27">
-        <v>-0.03953399286370654</v>
+        <v>-0.03934804461429121</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.0395339928637064</v>
+        <v>0.03934804461429109</v>
       </c>
       <c r="N27">
-        <v>0.03953399286370654</v>
+        <v>0.03934804461429121</v>
       </c>
       <c r="O27">
-        <v>0.07906798572741294</v>
+        <v>0.0786960892285823</v>
       </c>
       <c r="P27">
-        <v>0.0009594888636269936</v>
+        <v>0.000968765142052509</v>
       </c>
       <c r="Q27" t="s">
         <v>110</v>
@@ -2326,31 +2326,31 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>0.009864121310099783</v>
+        <v>0.009912710071967633</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.9901358786899002</v>
+        <v>0.9900872899280325</v>
       </c>
       <c r="K28">
-        <v>-0.008996011379192762</v>
+        <v>-0.009133370866740235</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.008996011379192814</v>
+        <v>0.009133370866740487</v>
       </c>
       <c r="N28">
-        <v>0.008996011379192814</v>
+        <v>0.009133370866740487</v>
       </c>
       <c r="O28">
-        <v>0.01799202275838558</v>
+        <v>0.01826674173348072</v>
       </c>
       <c r="P28">
-        <v>0.0005064277255270824</v>
+        <v>0.0005088973167183458</v>
       </c>
       <c r="Q28" t="s">
         <v>110</v>
@@ -2432,31 +2432,31 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.1668204099346449</v>
+        <v>0.1681614489247815</v>
       </c>
       <c r="I30">
-        <v>0.06416361217898148</v>
+        <v>0.06435438963884421</v>
       </c>
       <c r="J30">
-        <v>0.7690159778863737</v>
+        <v>0.7674841614363743</v>
       </c>
       <c r="K30">
-        <v>-0.1853695200369865</v>
+        <v>-0.1840284810468499</v>
       </c>
       <c r="L30">
-        <v>-0.08040439466447447</v>
+        <v>-0.08021361720461173</v>
       </c>
       <c r="M30">
-        <v>0.2657739147014612</v>
+        <v>0.2642420982514618</v>
       </c>
       <c r="N30">
-        <v>0.2657739147014612</v>
+        <v>0.2642420982514618</v>
       </c>
       <c r="O30">
-        <v>0.5315478294029221</v>
+        <v>0.5284841965029234</v>
       </c>
       <c r="P30">
-        <v>0.009765477230362696</v>
+        <v>0.009814215225993508</v>
       </c>
       <c r="Q30" t="s">
         <v>111</v>
@@ -2485,31 +2485,31 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>0.06300339075639221</v>
+        <v>0.06359650019244359</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.9369966092436077</v>
+        <v>0.9364034998075564</v>
       </c>
       <c r="K31">
-        <v>-0.1038170191782527</v>
+        <v>-0.104564948732338</v>
       </c>
       <c r="L31">
-        <v>-0.06416361217898148</v>
+        <v>-0.06435438963884421</v>
       </c>
       <c r="M31">
-        <v>0.1679806313572341</v>
+        <v>0.1689193383711821</v>
       </c>
       <c r="N31">
-        <v>0.1679806313572341</v>
+        <v>0.1689193383711821</v>
       </c>
       <c r="O31">
-        <v>0.3359612627144683</v>
+        <v>0.3378386767423643</v>
       </c>
       <c r="P31">
-        <v>0.003061020330126867</v>
+        <v>0.003087880722148242</v>
       </c>
       <c r="Q31" t="s">
         <v>111</v>
@@ -2538,31 +2538,31 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>0.02123212811106221</v>
+        <v>0.02144095158038513</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.9787678718889378</v>
+        <v>0.9785590484196149</v>
       </c>
       <c r="K32">
-        <v>-0.04177126264533</v>
+        <v>-0.04215554861205846</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.04177126264533004</v>
+        <v>0.0421555486120585</v>
       </c>
       <c r="N32">
-        <v>0.04177126264533004</v>
+        <v>0.0421555486120585</v>
       </c>
       <c r="O32">
-        <v>0.08354252529066004</v>
+        <v>0.08431109722411696</v>
       </c>
       <c r="P32">
-        <v>0.001077550177248619</v>
+        <v>0.00108791600170362</v>
       </c>
       <c r="Q32" t="s">
         <v>111</v>
@@ -2644,31 +2644,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.6239247221249276</v>
+        <v>0.6259257040373644</v>
       </c>
       <c r="I34">
-        <v>0.1107257168785472</v>
+        <v>0.1105226289757079</v>
       </c>
       <c r="J34">
-        <v>0.2653495609965253</v>
+        <v>0.2635516669869277</v>
       </c>
       <c r="K34">
-        <v>0.2571231846110396</v>
+        <v>0.2591241665234764</v>
       </c>
       <c r="L34">
-        <v>-0.03893414706703101</v>
+        <v>-0.03913723496987034</v>
       </c>
       <c r="M34">
-        <v>-0.2181890375440084</v>
+        <v>-0.2199869315536059</v>
       </c>
       <c r="N34">
-        <v>0.2571231846110396</v>
+        <v>0.2591241665234764</v>
       </c>
       <c r="O34">
-        <v>0.5142463692220789</v>
+        <v>0.5182483330469526</v>
       </c>
       <c r="P34">
-        <v>0.008800789453700251</v>
+        <v>0.008775704672300655</v>
       </c>
       <c r="Q34" t="s">
         <v>112</v>
@@ -2706,19 +2706,19 @@
         <v>0.111767262390641</v>
       </c>
       <c r="K35">
-        <v>0.2410447754575206</v>
+        <v>0.2390437935450838</v>
       </c>
       <c r="L35">
-        <v>-0.08746247685163643</v>
+        <v>-0.08725938894879709</v>
       </c>
       <c r="M35">
-        <v>-0.1535822986058843</v>
+        <v>-0.1517844045962867</v>
       </c>
       <c r="N35">
-        <v>0.2410447754575206</v>
+        <v>0.2390437935450838</v>
       </c>
       <c r="O35">
-        <v>0.4820895509150413</v>
+        <v>0.4780875870901676</v>
       </c>
       <c r="P35">
         <v>0.003979911149551985</v>
@@ -2933,7 +2933,7 @@
         <v>0.04416332226643774</v>
       </c>
       <c r="P39">
-        <v>0.0006374477303512921</v>
+        <v>0.000637447730351292</v>
       </c>
       <c r="Q39" t="s">
         <v>113</v>
@@ -3121,31 +3121,31 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>0.07358755611757353</v>
+        <v>0.07427219980045575</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.9264124438824265</v>
+        <v>0.9257278001995443</v>
       </c>
       <c r="K43">
-        <v>-0.1123013410241873</v>
+        <v>-0.1116166973413051</v>
       </c>
       <c r="L43">
         <v>-0.07407407407407408</v>
       </c>
       <c r="M43">
-        <v>0.1863754150982615</v>
+        <v>0.1856907714153793</v>
       </c>
       <c r="N43">
-        <v>0.1863754150982615</v>
+        <v>0.1856907714153793</v>
       </c>
       <c r="O43">
-        <v>0.3727508301965229</v>
+        <v>0.3713815428307585</v>
       </c>
       <c r="P43">
-        <v>0.004039847567538755</v>
+        <v>0.004074420156281893</v>
       </c>
       <c r="Q43" t="s">
         <v>114</v>
@@ -3174,31 +3174,31 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>0.1858888971417609</v>
+        <v>0.1873374049922857</v>
       </c>
       <c r="I44">
-        <v>0.07407407407407408</v>
+        <v>0.07427988436978475</v>
       </c>
       <c r="J44">
-        <v>0.740037028784165</v>
+        <v>0.7383827106379296</v>
       </c>
       <c r="K44">
-        <v>0.1123013410241873</v>
+        <v>0.11306520519183</v>
       </c>
       <c r="L44">
-        <v>0.07407407407407408</v>
+        <v>0.07427988436978475</v>
       </c>
       <c r="M44">
-        <v>-0.1863754150982615</v>
+        <v>-0.1873450895616147</v>
       </c>
       <c r="N44">
-        <v>0.1863754150982615</v>
+        <v>0.1873450895616147</v>
       </c>
       <c r="O44">
-        <v>0.3727508301965229</v>
+        <v>0.3746901791232294</v>
       </c>
       <c r="P44">
-        <v>0.01221640134808277</v>
+        <v>0.01227194572147411</v>
       </c>
       <c r="Q44" t="s">
         <v>115</v>
@@ -3651,31 +3651,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.5759959997540098</v>
+        <v>0.5739370205038326</v>
       </c>
       <c r="I53">
-        <v>0.1292540275664327</v>
+        <v>0.1294082203660043</v>
       </c>
       <c r="J53">
-        <v>0.2947499726795575</v>
+        <v>0.2966547591301633</v>
       </c>
       <c r="K53">
-        <v>0.2640256752264918</v>
+        <v>0.2619666959763145</v>
       </c>
       <c r="L53">
-        <v>-0.0008025187580562032</v>
+        <v>-0.0006483259584845746</v>
       </c>
       <c r="M53">
-        <v>-0.2632231564684354</v>
+        <v>-0.2613183700178296</v>
       </c>
       <c r="N53">
-        <v>0.2640256752264918</v>
+        <v>0.2619666959763145</v>
       </c>
       <c r="O53">
-        <v>0.5280513504529833</v>
+        <v>0.5239333919526288</v>
       </c>
       <c r="P53">
-        <v>0.01463893039857201</v>
+        <v>0.01467007533398586</v>
       </c>
       <c r="Q53" t="s">
         <v>102</v>
@@ -3704,31 +3704,31 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.331648159624638</v>
+        <v>0.3296583486563774</v>
       </c>
       <c r="I54">
-        <v>0.1316761818260349</v>
+        <v>0.1315124052484971</v>
       </c>
       <c r="J54">
-        <v>0.5366756585493271</v>
+        <v>0.5388292460951255</v>
       </c>
       <c r="K54">
-        <v>-0.2443478401293718</v>
+        <v>-0.2442786718474552</v>
       </c>
       <c r="L54">
-        <v>0.002422154259602238</v>
+        <v>0.002104184882492754</v>
       </c>
       <c r="M54">
-        <v>0.2419256858697695</v>
+        <v>0.2421744869649622</v>
       </c>
       <c r="N54">
-        <v>0.2443478401293718</v>
+        <v>0.2442786718474552</v>
       </c>
       <c r="O54">
-        <v>0.4886956802587436</v>
+        <v>0.4885573436949102</v>
       </c>
       <c r="P54">
-        <v>0.01515759567461361</v>
+        <v>0.01513277899206018</v>
       </c>
       <c r="Q54" t="s">
         <v>118</v>
@@ -3916,31 +3916,31 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <v>0.009953029755996096</v>
+        <v>0.009953029755996098</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.9900469702440039</v>
+        <v>0.990046970244004</v>
       </c>
       <c r="K58">
-        <v>-0.006557825523373065</v>
+        <v>-0.006557825523373063</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.006557825523373029</v>
+        <v>0.00655782552337314</v>
       </c>
       <c r="N58">
-        <v>0.006557825523373065</v>
+        <v>0.00655782552337314</v>
       </c>
       <c r="O58">
-        <v>0.01311565104674609</v>
+        <v>0.0131156510467462</v>
       </c>
       <c r="P58">
-        <v>0.0005109464346867147</v>
+        <v>0.0005109464346867119</v>
       </c>
       <c r="Q58" t="s">
         <v>109</v>
@@ -3969,31 +3969,31 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>0.009917447074931918</v>
+        <v>0.009966786783446993</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.9900825529250681</v>
+        <v>0.990033213216553</v>
       </c>
       <c r="K59">
-        <v>-3.558268106417829e-05</v>
+        <v>1.375702745089538E-05</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>3.55826810641835e-05</v>
+        <v>-1.375702745098906E-05</v>
       </c>
       <c r="N59">
-        <v>3.55826810641835e-05</v>
+        <v>1.375702745098906E-05</v>
       </c>
       <c r="O59">
-        <v>7.116536212836179e-05</v>
+        <v>2.751405490188444E-05</v>
       </c>
       <c r="P59">
-        <v>0.0005091380683639621</v>
+        <v>0.0005116455526860893</v>
       </c>
       <c r="Q59" t="s">
         <v>109</v>
@@ -4075,31 +4075,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.9326218030398161</v>
+        <v>0.9319906572528978</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.06737819696018388</v>
+        <v>0.0680093427471022</v>
       </c>
       <c r="K61">
-        <v>0.1771684652475966</v>
+        <v>0.1765373194606782</v>
       </c>
       <c r="L61">
         <v>-0.06846762925011644</v>
       </c>
       <c r="M61">
-        <v>-0.10870083599748</v>
+        <v>-0.1080696902105617</v>
       </c>
       <c r="N61">
-        <v>0.1771684652475966</v>
+        <v>0.1765373194606782</v>
       </c>
       <c r="O61">
-        <v>0.354336930495193</v>
+        <v>0.3530746389213563</v>
       </c>
       <c r="P61">
-        <v>0.002327347242021428</v>
+        <v>0.002347558223933681</v>
       </c>
       <c r="Q61" t="s">
         <v>111</v>
@@ -4658,31 +4658,31 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.9741586110421568</v>
+        <v>0.9744091716313227</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.02584138895784317</v>
+        <v>0.02559082836867739</v>
       </c>
       <c r="K72">
-        <v>-0.01585980129815412</v>
+        <v>-0.01560924070898828</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.01585980129815415</v>
+        <v>0.01560924070898837</v>
       </c>
       <c r="N72">
-        <v>0.01585980129815415</v>
+        <v>0.01560924070898837</v>
       </c>
       <c r="O72">
-        <v>0.03171960259630827</v>
+        <v>0.03121848141797665</v>
       </c>
       <c r="P72">
-        <v>0.001491769574789489</v>
+        <v>0.001477685207234504</v>
       </c>
       <c r="Q72" t="s">
         <v>124</v>
@@ -4720,19 +4720,19 @@
         <v>0.01018321914877265</v>
       </c>
       <c r="K73">
-        <v>0.01565816980907053</v>
+        <v>0.01540760921990469</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>-0.01565816980907052</v>
+        <v>-0.01540760921990474</v>
       </c>
       <c r="N73">
-        <v>0.01565816980907053</v>
+        <v>0.01540760921990474</v>
       </c>
       <c r="O73">
-        <v>0.03131633961814105</v>
+        <v>0.03081521843980944</v>
       </c>
       <c r="P73">
         <v>0.0005973049597950049</v>
@@ -4985,7 +4985,7 @@
         <v>0.7869361223346897</v>
       </c>
       <c r="K78">
-        <v>-0.1729618351856765</v>
+        <v>-0.1729618351856766</v>
       </c>
       <c r="L78">
         <v>-0.08119480427896882</v>
@@ -5082,31 +5082,31 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.1120838027235224</v>
+        <v>0.1088861580393004</v>
       </c>
       <c r="I80">
-        <v>0.02829926122131664</v>
+        <v>0.02797207361127548</v>
       </c>
       <c r="J80">
-        <v>0.859616936055161</v>
+        <v>0.8631417683494241</v>
       </c>
       <c r="K80">
-        <v>-0.1611585402722626</v>
+        <v>-0.1643561849564846</v>
       </c>
       <c r="L80">
-        <v>-0.08674498656629398</v>
+        <v>-0.08707217417633514</v>
       </c>
       <c r="M80">
-        <v>0.2479035268385565</v>
+        <v>0.2514283591328197</v>
       </c>
       <c r="N80">
-        <v>0.2479035268385565</v>
+        <v>0.2514283591328197</v>
       </c>
       <c r="O80">
-        <v>0.4958070536771131</v>
+        <v>0.5028567182656395</v>
       </c>
       <c r="P80">
-        <v>0.004586946226453694</v>
+        <v>0.004487919544739906</v>
       </c>
       <c r="Q80" t="s">
         <v>125</v>
@@ -5188,31 +5188,31 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.9495739780292116</v>
+        <v>0.9490928382251235</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.05042602197078841</v>
+        <v>0.05090716177487667</v>
       </c>
       <c r="K82">
-        <v>0.1377277237374589</v>
+        <v>0.1372465839333707</v>
       </c>
       <c r="L82">
         <v>-0.04625655698617073</v>
       </c>
       <c r="M82">
-        <v>-0.09147116675128811</v>
+        <v>-0.09099002694719985</v>
       </c>
       <c r="N82">
-        <v>0.1377277237374589</v>
+        <v>0.1372465839333707</v>
       </c>
       <c r="O82">
-        <v>0.2754554474749177</v>
+        <v>0.2744931678667413</v>
       </c>
       <c r="P82">
-        <v>0.001418762615673777</v>
+        <v>0.001431574004589723</v>
       </c>
       <c r="Q82" t="s">
         <v>113</v>
@@ -5453,31 +5453,31 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0.1618961065668181</v>
+        <v>0.1632081032928261</v>
       </c>
       <c r="I87">
-        <v>0.06110109359480677</v>
+        <v>0.06128672442798468</v>
       </c>
       <c r="J87">
-        <v>0.7770027998383751</v>
+        <v>0.7755051722791892</v>
       </c>
       <c r="K87">
-        <v>-0.1830084273076189</v>
+        <v>-0.1816964305816109</v>
       </c>
       <c r="L87">
-        <v>-0.08089804840433525</v>
+        <v>-0.08071241757115732</v>
       </c>
       <c r="M87">
-        <v>0.2639064757119541</v>
+        <v>0.2624088481527683</v>
       </c>
       <c r="N87">
-        <v>0.2639064757119541</v>
+        <v>0.2624088481527683</v>
       </c>
       <c r="O87">
-        <v>0.5278129514239083</v>
+        <v>0.5248176963055365</v>
       </c>
       <c r="P87">
-        <v>0.005427006756790373</v>
+        <v>0.005454796743654393</v>
       </c>
       <c r="Q87" t="s">
         <v>122</v>
@@ -5515,19 +5515,19 @@
         <v>0.9358229333264055</v>
       </c>
       <c r="K88">
-        <v>-0.09771903989322368</v>
+        <v>-0.0990310366192317</v>
       </c>
       <c r="L88">
-        <v>-0.06110109359480677</v>
+        <v>-0.06128672442798468</v>
       </c>
       <c r="M88">
-        <v>0.1588201334880305</v>
+        <v>0.1603177610472163</v>
       </c>
       <c r="N88">
-        <v>0.1588201334880305</v>
+        <v>0.1603177610472163</v>
       </c>
       <c r="O88">
-        <v>0.317640266976061</v>
+        <v>0.3206355220944327</v>
       </c>
       <c r="P88">
         <v>0.001779507282570888</v>
@@ -5718,31 +5718,31 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.2657712849009166</v>
+        <v>0.2675771964160173</v>
       </c>
       <c r="I92">
-        <v>0.1130819393312265</v>
+        <v>0.1132782170441018</v>
       </c>
       <c r="J92">
-        <v>0.6211467757678569</v>
+        <v>0.6191445865398809</v>
       </c>
       <c r="K92">
-        <v>-0.2290237324692894</v>
+        <v>-0.2272178209541887</v>
       </c>
       <c r="L92">
-        <v>-0.03367573984966091</v>
+        <v>-0.03347946213678556</v>
       </c>
       <c r="M92">
-        <v>0.2626994723189504</v>
+        <v>0.2606972830909743</v>
       </c>
       <c r="N92">
-        <v>0.2626994723189504</v>
+        <v>0.2606972830909743</v>
       </c>
       <c r="O92">
-        <v>0.5253989446379006</v>
+        <v>0.5213945661819486</v>
       </c>
       <c r="P92">
-        <v>0.01965758452120001</v>
+        <v>0.01971223964665976</v>
       </c>
       <c r="Q92" t="s">
         <v>119</v>
@@ -5771,31 +5771,31 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.494795017370206</v>
+        <v>0.4969302159624325</v>
       </c>
       <c r="I93">
-        <v>0.1467576791808874</v>
+        <v>0.1466576969723317</v>
       </c>
       <c r="J93">
-        <v>0.3584473034489066</v>
+        <v>0.3564120870652357</v>
       </c>
       <c r="K93">
-        <v>0.2290237324692894</v>
+        <v>0.2293530195464152</v>
       </c>
       <c r="L93">
-        <v>0.03367573984966091</v>
+        <v>0.03337947992822986</v>
       </c>
       <c r="M93">
-        <v>-0.2626994723189504</v>
+        <v>-0.2627324994746452</v>
       </c>
       <c r="N93">
-        <v>0.2626994723189504</v>
+        <v>0.2627324994746452</v>
       </c>
       <c r="O93">
-        <v>0.5253989446379006</v>
+        <v>0.5254649989492902</v>
       </c>
       <c r="P93">
-        <v>0.02241317055693573</v>
+        <v>0.02238971498430017</v>
       </c>
       <c r="Q93" t="s">
         <v>111</v>
@@ -5877,31 +5877,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.8901701207136951</v>
+        <v>0.8892372393975138</v>
       </c>
       <c r="I95">
-        <v>0.01079530625161274</v>
+        <v>0.01083764468281484</v>
       </c>
       <c r="J95">
-        <v>0.09903457303469214</v>
+        <v>0.09992511591967126</v>
       </c>
       <c r="K95">
-        <v>0.2278141854288378</v>
+        <v>0.2268813041126565</v>
       </c>
       <c r="L95">
-        <v>-0.08911468474748717</v>
+        <v>-0.08907234631628506</v>
       </c>
       <c r="M95">
-        <v>-0.1386995006813507</v>
+        <v>-0.1378089577963716</v>
       </c>
       <c r="N95">
-        <v>0.2278141854288378</v>
+        <v>0.2268813041126565</v>
       </c>
       <c r="O95">
-        <v>0.4556283708576757</v>
+        <v>0.4537626082253132</v>
       </c>
       <c r="P95">
-        <v>0.007321213736864282</v>
+        <v>0.007376098101291036</v>
       </c>
       <c r="Q95" t="s">
         <v>128</v>
@@ -5930,31 +5930,31 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.9660142125579014</v>
+        <v>0.9656843513276852</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.03398578744209849</v>
+        <v>0.03431564867231492</v>
       </c>
       <c r="K96">
-        <v>0.07584409184420637</v>
+        <v>0.0764471119301714</v>
       </c>
       <c r="L96">
-        <v>-0.01079530625161274</v>
+        <v>-0.01083764468281484</v>
       </c>
       <c r="M96">
-        <v>-0.06504878559259365</v>
+        <v>-0.06560946724735635</v>
       </c>
       <c r="N96">
-        <v>0.07584409184420637</v>
+        <v>0.0764471119301714</v>
       </c>
       <c r="O96">
-        <v>0.1516881836884127</v>
+        <v>0.1528942238603426</v>
       </c>
       <c r="P96">
-        <v>0.002431907681039928</v>
+        <v>0.00245467295766764</v>
       </c>
       <c r="Q96" t="s">
         <v>128</v>
@@ -5983,31 +5983,31 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.9892126304522384</v>
+        <v>0.9891053634865441</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.01078736954776169</v>
+        <v>0.01089463651345589</v>
       </c>
       <c r="K97">
-        <v>0.02319841789433696</v>
+        <v>0.02342101215885894</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>-0.0231984178943368</v>
+        <v>-0.02342101215885902</v>
       </c>
       <c r="N97">
-        <v>0.02319841789433696</v>
+        <v>0.02342101215885902</v>
       </c>
       <c r="O97">
-        <v>0.04639683578867376</v>
+        <v>0.04684202431771797</v>
       </c>
       <c r="P97">
-        <v>0.0007904446078519756</v>
+        <v>0.0007982180302737459</v>
       </c>
       <c r="Q97" t="s">
         <v>128</v>
@@ -6036,31 +6036,31 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.9660142125579014</v>
+        <v>0.9656843513276852</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.03398578744209849</v>
+        <v>0.03431564867231492</v>
       </c>
       <c r="K98">
-        <v>-0.02319841789433696</v>
+        <v>-0.02342101215885894</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.0231984178943368</v>
+        <v>0.02342101215885902</v>
       </c>
       <c r="N98">
-        <v>0.02319841789433696</v>
+        <v>0.02342101215885902</v>
       </c>
       <c r="O98">
-        <v>0.04639683578867376</v>
+        <v>0.04684202431771797</v>
       </c>
       <c r="P98">
-        <v>0.002431907681039928</v>
+        <v>0.00245467295766764</v>
       </c>
       <c r="Q98" t="s">
         <v>129</v>
@@ -6098,19 +6098,19 @@
         <v>0.01122272896911016</v>
       </c>
       <c r="K99">
-        <v>0.02276305847298843</v>
+        <v>0.02309291970320471</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>-0.02276305847298833</v>
+        <v>-0.02309291970320476</v>
       </c>
       <c r="N99">
-        <v>0.02276305847298843</v>
+        <v>0.02309291970320476</v>
       </c>
       <c r="O99">
-        <v>0.04552611694597676</v>
+        <v>0.04618583940640947</v>
       </c>
       <c r="P99">
         <v>0.000821983653599707</v>
@@ -6354,31 +6354,31 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>0.03350232219478196</v>
+        <v>0.03317993026205834</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.966497677805218</v>
+        <v>0.9668200697379417</v>
       </c>
       <c r="K104">
-        <v>-0.06135329723559897</v>
+        <v>-0.06167568916832258</v>
       </c>
       <c r="L104">
         <v>-0.004479840716774507</v>
       </c>
       <c r="M104">
-        <v>0.06583313795237333</v>
+        <v>0.06615552988509699</v>
       </c>
       <c r="N104">
-        <v>0.06583313795237333</v>
+        <v>0.06615552988509699</v>
       </c>
       <c r="O104">
-        <v>0.1316662759047468</v>
+        <v>0.1323110597701941</v>
       </c>
       <c r="P104">
-        <v>0.002398512340914</v>
+        <v>0.002376223888138021</v>
       </c>
       <c r="Q104" t="s">
         <v>110</v>
@@ -6407,31 +6407,31 @@
         <v>2</v>
       </c>
       <c r="H105">
-        <v>0.09833755743892539</v>
+        <v>0.0974564225413812</v>
       </c>
       <c r="I105">
-        <v>0.004553221242654264</v>
+        <v>0.00453465165813147</v>
       </c>
       <c r="J105">
-        <v>0.8971092213184203</v>
+        <v>0.8980089258004873</v>
       </c>
       <c r="K105">
-        <v>0.06483523524414342</v>
+        <v>0.06427649227932286</v>
       </c>
       <c r="L105">
-        <v>0.004553221242654264</v>
+        <v>0.00453465165813147</v>
       </c>
       <c r="M105">
-        <v>-0.0693884564867977</v>
+        <v>-0.06881114393745436</v>
       </c>
       <c r="N105">
-        <v>0.0693884564867977</v>
+        <v>0.06881114393745436</v>
       </c>
       <c r="O105">
-        <v>0.1387769129735954</v>
+        <v>0.1376222878749087</v>
       </c>
       <c r="P105">
-        <v>0.006870519925878483</v>
+        <v>0.006817098215645558</v>
       </c>
       <c r="Q105" t="s">
         <v>130</v>
@@ -6460,31 +6460,31 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>0.03286058291257684</v>
+        <v>0.03254423722068113</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.9671394170874231</v>
+        <v>0.9674557627793189</v>
       </c>
       <c r="K106">
-        <v>-0.06547697452634854</v>
+        <v>-0.06491218532070007</v>
       </c>
       <c r="L106">
-        <v>-0.004553221242654264</v>
+        <v>-0.00453465165813147</v>
       </c>
       <c r="M106">
-        <v>0.07003019576900282</v>
+        <v>0.06944683697883158</v>
       </c>
       <c r="N106">
-        <v>0.07003019576900282</v>
+        <v>0.06944683697883158</v>
       </c>
       <c r="O106">
-        <v>0.1400603915380056</v>
+        <v>0.1388936739576631</v>
       </c>
       <c r="P106">
-        <v>0.002354130740979446</v>
+        <v>0.002332230358844826</v>
       </c>
       <c r="Q106" t="s">
         <v>110</v>
@@ -6672,31 +6672,31 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0.9898550927386364</v>
+        <v>0.9899060699227827</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.0101449072613636</v>
+        <v>0.01009393007721726</v>
       </c>
       <c r="K110">
-        <v>0.003548512787436731</v>
+        <v>0.003599489971583103</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>-0.003548512787436854</v>
+        <v>-0.003599489971583186</v>
       </c>
       <c r="N110">
-        <v>0.003548512787436854</v>
+        <v>0.003599489971583186</v>
       </c>
       <c r="O110">
-        <v>0.007097025574873584</v>
+        <v>0.007198979943166289</v>
       </c>
       <c r="P110">
-        <v>0.0007438509717053293</v>
+        <v>0.0007401513076158156</v>
       </c>
       <c r="Q110" t="s">
         <v>131</v>
@@ -6725,31 +6725,31 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>0.9845854299257653</v>
+        <v>0.9847369652852149</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.01541457007423478</v>
+        <v>0.01526303471478506</v>
       </c>
       <c r="K111">
-        <v>-0.005269662812871112</v>
+        <v>-0.005169104637567812</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.005269662812871188</v>
+        <v>0.0051691046375678</v>
       </c>
       <c r="N111">
-        <v>0.005269662812871188</v>
+        <v>0.005169104637567812</v>
       </c>
       <c r="O111">
-        <v>0.0105393256257423</v>
+        <v>0.01033820927513561</v>
       </c>
       <c r="P111">
-        <v>0.001124219341011946</v>
+        <v>0.001113338850820765</v>
       </c>
       <c r="Q111" t="s">
         <v>104</v>
@@ -6778,31 +6778,31 @@
         <v>2</v>
       </c>
       <c r="H112">
-        <v>0.9528271479562029</v>
+        <v>0.9532760722959783</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.0471728520437971</v>
+        <v>0.0467239277040216</v>
       </c>
       <c r="K112">
-        <v>-0.03175828196956232</v>
+        <v>-0.0314608929892366</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.03175828196956232</v>
+        <v>0.03146089298923654</v>
       </c>
       <c r="N112">
-        <v>0.03175828196956232</v>
+        <v>0.0314608929892366</v>
       </c>
       <c r="O112">
-        <v>0.06351656393912464</v>
+        <v>0.06292178597847314</v>
       </c>
       <c r="P112">
-        <v>0.003329449931396378</v>
+        <v>0.003299318687698592</v>
       </c>
       <c r="Q112" t="s">
         <v>104</v>
@@ -6937,31 +6937,31 @@
         <v>2</v>
       </c>
       <c r="H115">
-        <v>0.187290924214135</v>
+        <v>0.1944357805350332</v>
       </c>
       <c r="I115">
-        <v>0.06874658638497909</v>
+        <v>0.06976512367109289</v>
       </c>
       <c r="J115">
-        <v>0.7439624894008859</v>
+        <v>0.7357990957938739</v>
       </c>
       <c r="K115">
-        <v>-0.1823742373121405</v>
+        <v>-0.1752293809912422</v>
       </c>
       <c r="L115">
-        <v>-0.07825905300782683</v>
+        <v>-0.07724051572171303</v>
       </c>
       <c r="M115">
-        <v>0.2606332903199675</v>
+        <v>0.2524698967129555</v>
       </c>
       <c r="N115">
-        <v>0.2606332903199675</v>
+        <v>0.2524698967129555</v>
       </c>
       <c r="O115">
-        <v>0.5212665806399348</v>
+        <v>0.5049397934259108</v>
       </c>
       <c r="P115">
-        <v>0.007531774646886378</v>
+        <v>0.00770235639621865</v>
       </c>
       <c r="Q115" t="s">
         <v>132</v>
@@ -7043,31 +7043,31 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0.1705808490814179</v>
+        <v>0.1719435523218402</v>
       </c>
       <c r="I117">
-        <v>0.06768334938019595</v>
+        <v>0.06787773006010664</v>
       </c>
       <c r="J117">
-        <v>0.7617358015383862</v>
+        <v>0.7601787176180532</v>
       </c>
       <c r="K117">
-        <v>-0.190998228569686</v>
+        <v>-0.1896355253292637</v>
       </c>
       <c r="L117">
-        <v>-0.08016496762023011</v>
+        <v>-0.07997058694031942</v>
       </c>
       <c r="M117">
-        <v>0.2711631961899161</v>
+        <v>0.2696061122695831</v>
       </c>
       <c r="N117">
-        <v>0.2711631961899161</v>
+        <v>0.2696061122695831</v>
       </c>
       <c r="O117">
-        <v>0.5423263923798323</v>
+        <v>0.5392122245391662</v>
       </c>
       <c r="P117">
-        <v>0.007149624199963208</v>
+        <v>0.007184376775137149</v>
       </c>
       <c r="Q117" t="s">
         <v>133</v>
@@ -7105,19 +7105,19 @@
         <v>0.9313540665199445</v>
       </c>
       <c r="K118">
-        <v>-0.1019349156013623</v>
+        <v>-0.1032976188417846</v>
       </c>
       <c r="L118">
-        <v>-0.06768334938019595</v>
+        <v>-0.06787773006010664</v>
       </c>
       <c r="M118">
-        <v>0.1696182649815583</v>
+        <v>0.1711753489018912</v>
       </c>
       <c r="N118">
-        <v>0.1696182649815583</v>
+        <v>0.1711753489018912</v>
       </c>
       <c r="O118">
-        <v>0.3392365299631166</v>
+        <v>0.3423506978037825</v>
       </c>
       <c r="P118">
         <v>0.002367913677655828</v>
@@ -7361,31 +7361,31 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0.4063919352662083</v>
+        <v>0.4043118269092599</v>
       </c>
       <c r="I123">
-        <v>0.1618316640274118</v>
+        <v>0.1618043437476466</v>
       </c>
       <c r="J123">
-        <v>0.4317764007063801</v>
+        <v>0.4338838293430936</v>
       </c>
       <c r="K123">
-        <v>-0.2663545930671564</v>
+        <v>-0.2684347014241047</v>
       </c>
       <c r="L123">
-        <v>0.06517403078441272</v>
+        <v>0.06514671050464749</v>
       </c>
       <c r="M123">
-        <v>0.2011805622827438</v>
+        <v>0.2032879909194573</v>
       </c>
       <c r="N123">
-        <v>0.2663545930671564</v>
+        <v>0.2684347014241047</v>
       </c>
       <c r="O123">
-        <v>0.532709186134313</v>
+        <v>0.5368694028482095</v>
       </c>
       <c r="P123">
-        <v>0.01152268976410645</v>
+        <v>0.01152029858519006</v>
       </c>
       <c r="Q123" t="s">
         <v>134</v>
@@ -7467,31 +7467,31 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>0.04410079384659034</v>
+        <v>0.04452524305617585</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0.9558992061534097</v>
+        <v>0.9554747569438242</v>
       </c>
       <c r="K125">
-        <v>-0.0892252400880776</v>
+        <v>-0.08880079087849209</v>
       </c>
       <c r="L125">
         <v>-0.03984637542006721</v>
       </c>
       <c r="M125">
-        <v>0.1290716155081449</v>
+        <v>0.1286471662985594</v>
       </c>
       <c r="N125">
-        <v>0.1290716155081449</v>
+        <v>0.1286471662985594</v>
       </c>
       <c r="O125">
-        <v>0.2581432310162898</v>
+        <v>0.2572943325971188</v>
       </c>
       <c r="P125">
-        <v>0.001561330141803365</v>
+        <v>0.001575657251369047</v>
       </c>
       <c r="Q125" t="s">
         <v>126</v>
@@ -7520,31 +7520,31 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0.1245382925861385</v>
+        <v>0.125610729471962</v>
       </c>
       <c r="I126">
-        <v>0.03877086909711241</v>
+        <v>0.03890212155504531</v>
       </c>
       <c r="J126">
-        <v>0.8366908383167491</v>
+        <v>0.8354871489729926</v>
       </c>
       <c r="K126">
-        <v>0.08043749873954821</v>
+        <v>0.08108548641578613</v>
       </c>
       <c r="L126">
-        <v>0.03877086909711241</v>
+        <v>0.03890212155504531</v>
       </c>
       <c r="M126">
-        <v>-0.1192083678366607</v>
+        <v>-0.1199876079708316</v>
       </c>
       <c r="N126">
-        <v>0.1192083678366607</v>
+        <v>0.1199876079708316</v>
       </c>
       <c r="O126">
-        <v>0.2384167356733213</v>
+        <v>0.2399752159416631</v>
       </c>
       <c r="P126">
-        <v>0.005239545823444438</v>
+        <v>0.005271662842241081</v>
       </c>
       <c r="Q126" t="s">
         <v>114</v>
@@ -7582,19 +7582,19 @@
         <v>0.9550466087120192</v>
       </c>
       <c r="K127">
-        <v>-0.07958490129815765</v>
+        <v>-0.08065733818398108</v>
       </c>
       <c r="L127">
-        <v>-0.03877086909711241</v>
+        <v>-0.03890212155504531</v>
       </c>
       <c r="M127">
-        <v>0.1183557703952701</v>
+        <v>0.1195594597390266</v>
       </c>
       <c r="N127">
-        <v>0.1183557703952701</v>
+        <v>0.1195594597390266</v>
       </c>
       <c r="O127">
-        <v>0.2367115407905402</v>
+        <v>0.239118919478053</v>
       </c>
       <c r="P127">
         <v>0.001590095699988539</v>
@@ -7679,31 +7679,31 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.8959357699554118</v>
+        <v>0.8950309471022578</v>
       </c>
       <c r="I129">
-        <v>0.006951340615690174</v>
+        <v>0.006979216404450279</v>
       </c>
       <c r="J129">
-        <v>0.09711288942889804</v>
+        <v>0.09798983649329199</v>
       </c>
       <c r="K129">
-        <v>0.2231892416220471</v>
+        <v>0.2222844187688932</v>
       </c>
       <c r="L129">
-        <v>-0.08970629262730891</v>
+        <v>-0.08967841683854881</v>
       </c>
       <c r="M129">
-        <v>-0.1334829489947382</v>
+        <v>-0.1326060019303443</v>
       </c>
       <c r="N129">
-        <v>0.2231892416220471</v>
+        <v>0.2222844187688932</v>
       </c>
       <c r="O129">
-        <v>0.4463784832440942</v>
+        <v>0.4445688375377863</v>
       </c>
       <c r="P129">
-        <v>0.004869403821458263</v>
+        <v>0.004906971124005306</v>
       </c>
       <c r="Q129" t="s">
         <v>111</v>
@@ -7732,31 +7732,31 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>0.6689769492464613</v>
+        <v>0.6670795758285233</v>
       </c>
       <c r="I130">
-        <v>0.09708690365733197</v>
+        <v>0.09730297188523898</v>
       </c>
       <c r="J130">
-        <v>0.2339361470962067</v>
+        <v>0.2356174522862378</v>
       </c>
       <c r="K130">
-        <v>-0.2269588207089505</v>
+        <v>-0.2279513712737345</v>
       </c>
       <c r="L130">
-        <v>0.09013556304164179</v>
+        <v>0.09032375548078871</v>
       </c>
       <c r="M130">
-        <v>0.1368232576673087</v>
+        <v>0.1376276157929458</v>
       </c>
       <c r="N130">
-        <v>0.2269588207089505</v>
+        <v>0.2279513712737345</v>
       </c>
       <c r="O130">
-        <v>0.4539176414179009</v>
+        <v>0.455902742547469</v>
       </c>
       <c r="P130">
-        <v>0.01266009250066067</v>
+        <v>0.01270425819063023</v>
       </c>
       <c r="Q130" t="s">
         <v>135</v>
@@ -7785,31 +7785,31 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>0.3980757136501609</v>
+        <v>0.3959984119834525</v>
       </c>
       <c r="I131">
-        <v>0.1617224382265629</v>
+        <v>0.1616951548100516</v>
       </c>
       <c r="J131">
-        <v>0.4402018481232761</v>
+        <v>0.442306433206496</v>
       </c>
       <c r="K131">
-        <v>-0.2709012355963004</v>
+        <v>-0.2710811638450708</v>
       </c>
       <c r="L131">
-        <v>0.06463553456923091</v>
+        <v>0.06439218292481264</v>
       </c>
       <c r="M131">
-        <v>0.2062657010270693</v>
+        <v>0.2066889809202583</v>
       </c>
       <c r="N131">
-        <v>0.2709012355963004</v>
+        <v>0.2710811638450708</v>
       </c>
       <c r="O131">
-        <v>0.5418024711926006</v>
+        <v>0.5421623276901417</v>
       </c>
       <c r="P131">
-        <v>0.01611565697997688</v>
+        <v>0.01611049880122887</v>
       </c>
       <c r="Q131" t="s">
         <v>135</v>
@@ -7891,31 +7891,31 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.2544509320021707</v>
+        <v>0.2562150201042696</v>
       </c>
       <c r="I133">
-        <v>0.108327854761471</v>
+        <v>0.108530748083387</v>
       </c>
       <c r="J133">
-        <v>0.6372212132363584</v>
+        <v>0.6352542318123434</v>
       </c>
       <c r="K133">
-        <v>-0.2234647964389124</v>
+        <v>-0.2217007083368134</v>
       </c>
       <c r="L133">
-        <v>-0.04277571060355452</v>
+        <v>-0.04257281728163854</v>
       </c>
       <c r="M133">
-        <v>0.2662405070424669</v>
+        <v>0.2642735256184519</v>
       </c>
       <c r="N133">
-        <v>0.2662405070424669</v>
+        <v>0.2642735256184519</v>
       </c>
       <c r="O133">
-        <v>0.5324810140849338</v>
+        <v>0.5285470512369039</v>
       </c>
       <c r="P133">
-        <v>0.01341586100523376</v>
+        <v>0.01345625558557618</v>
       </c>
       <c r="Q133" t="s">
         <v>114</v>
@@ -7944,31 +7944,31 @@
         <v>2</v>
       </c>
       <c r="H134">
-        <v>0.109721183312076</v>
+        <v>0.1106901315379226</v>
       </c>
       <c r="I134">
-        <v>0.02136508233562105</v>
+        <v>0.02144544712749565</v>
       </c>
       <c r="J134">
-        <v>0.8689137343523029</v>
+        <v>0.8678644213345816</v>
       </c>
       <c r="K134">
-        <v>-0.1447297486900947</v>
+        <v>-0.145524888566347</v>
       </c>
       <c r="L134">
-        <v>-0.08696277242584993</v>
+        <v>-0.08708530095589131</v>
       </c>
       <c r="M134">
-        <v>0.2316925211159445</v>
+        <v>0.2326101895222382</v>
       </c>
       <c r="N134">
-        <v>0.2316925211159445</v>
+        <v>0.2326101895222382</v>
       </c>
       <c r="O134">
-        <v>0.4633850422318891</v>
+        <v>0.4652203790444766</v>
       </c>
       <c r="P134">
-        <v>0.006027614896678808</v>
+        <v>0.006069236801164725</v>
       </c>
       <c r="Q134" t="s">
         <v>114</v>
@@ -8006,19 +8006,19 @@
         <v>0.9637585039618415</v>
       </c>
       <c r="K135">
-        <v>-0.07347968727391743</v>
+        <v>-0.07444863549976408</v>
       </c>
       <c r="L135">
-        <v>-0.02136508233562105</v>
+        <v>-0.02144544712749565</v>
       </c>
       <c r="M135">
-        <v>0.09484476960953858</v>
+        <v>0.09589408262725985</v>
       </c>
       <c r="N135">
-        <v>0.09484476960953858</v>
+        <v>0.09589408262725985</v>
       </c>
       <c r="O135">
-        <v>0.1896895392190771</v>
+        <v>0.1917881652545196</v>
       </c>
       <c r="P135">
         <v>0.001811084074233502</v>
@@ -8103,31 +8103,31 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.8930134231843448</v>
+        <v>0.8920964314784814</v>
       </c>
       <c r="I137">
-        <v>0.009336675713693452</v>
+        <v>0.009373491763689807</v>
       </c>
       <c r="J137">
-        <v>0.09764990110196166</v>
+        <v>0.09853007675782879</v>
       </c>
       <c r="K137">
-        <v>0.2267491112053742</v>
+        <v>0.2258321194995108</v>
       </c>
       <c r="L137">
-        <v>-0.08935642928855982</v>
+        <v>-0.08931961323856347</v>
       </c>
       <c r="M137">
-        <v>-0.1373926819168145</v>
+        <v>-0.1365125062609474</v>
       </c>
       <c r="N137">
-        <v>0.2267491112053742</v>
+        <v>0.2258321194995108</v>
       </c>
       <c r="O137">
-        <v>0.4534982224107485</v>
+        <v>0.4516642389990216</v>
       </c>
       <c r="P137">
-        <v>0.00428676331808828</v>
+        <v>0.004319287079324701</v>
       </c>
       <c r="Q137" t="s">
         <v>136</v>
@@ -8165,19 +8165,19 @@
         <v>0.2250795300057343</v>
       </c>
       <c r="K138">
-        <v>-0.2155256058837797</v>
+        <v>-0.2146086141779162</v>
       </c>
       <c r="L138">
-        <v>0.08809597698000715</v>
+        <v>0.0880591609300108</v>
       </c>
       <c r="M138">
-        <v>0.1274296289037726</v>
+        <v>0.1265494532479055</v>
       </c>
       <c r="N138">
-        <v>0.2155256058837797</v>
+        <v>0.2146086141779162</v>
       </c>
       <c r="O138">
-        <v>0.4310512117675595</v>
+        <v>0.4292172283558325</v>
       </c>
       <c r="P138">
         <v>0.01068569646157295</v>
@@ -8262,31 +8262,31 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.9369813846720645</v>
+        <v>0.9363874852886778</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.06301861532793564</v>
+        <v>0.06361251471132232</v>
       </c>
       <c r="K140">
-        <v>0.1791840125167873</v>
+        <v>0.1785901131334006</v>
       </c>
       <c r="L140">
         <v>-0.0675990675990676</v>
       </c>
       <c r="M140">
-        <v>-0.1115849449177196</v>
+        <v>-0.1109910455343329</v>
       </c>
       <c r="N140">
-        <v>0.1791840125167873</v>
+        <v>0.1785901131334006</v>
       </c>
       <c r="O140">
-        <v>0.3583680250335745</v>
+        <v>0.357180226266801</v>
       </c>
       <c r="P140">
-        <v>0.002624323086670456</v>
+        <v>0.002647376119263293</v>
       </c>
       <c r="Q140" t="s">
         <v>103</v>
@@ -8324,19 +8324,19 @@
         <v>0.02123790392877462</v>
       </c>
       <c r="K141">
-        <v>0.04178071139916095</v>
+        <v>0.04237461078254767</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
       <c r="M141">
-        <v>-0.04178071139916102</v>
+        <v>-0.0423746107825477</v>
       </c>
       <c r="N141">
-        <v>0.04178071139916102</v>
+        <v>0.0423746107825477</v>
       </c>
       <c r="O141">
-        <v>0.08356142279832197</v>
+        <v>0.08474922156509537</v>
       </c>
       <c r="P141">
         <v>0.0009238602384660769</v>
@@ -8580,31 +8580,31 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>0.8234076041213733</v>
+        <v>0.8247032113381291</v>
       </c>
       <c r="I146">
-        <v>0.0388142411877288</v>
+        <v>0.03867595364853398</v>
       </c>
       <c r="J146">
-        <v>0.137778154690898</v>
+        <v>0.1366208350133369</v>
       </c>
       <c r="K146">
-        <v>0.2376959570189398</v>
+        <v>0.2389915642356956</v>
       </c>
       <c r="L146">
-        <v>-0.08360787377497417</v>
+        <v>-0.08374616131416898</v>
       </c>
       <c r="M146">
-        <v>-0.1540880832439655</v>
+        <v>-0.1552454029215266</v>
       </c>
       <c r="N146">
-        <v>0.2376959570189398</v>
+        <v>0.2389915642356956</v>
       </c>
       <c r="O146">
-        <v>0.4753919140378794</v>
+        <v>0.4779831284713911</v>
       </c>
       <c r="P146">
-        <v>0.008933645992476792</v>
+        <v>0.008880104629872954</v>
       </c>
       <c r="Q146" t="s">
         <v>108</v>
@@ -9057,31 +9057,31 @@
         <v>2</v>
       </c>
       <c r="H155">
-        <v>0.1854967917844817</v>
+        <v>0.186942812211728</v>
       </c>
       <c r="I155">
-        <v>0.07624123547946716</v>
+        <v>0.07644553763400519</v>
       </c>
       <c r="J155">
-        <v>0.7382619727360512</v>
+        <v>0.7366116501542668</v>
       </c>
       <c r="K155">
-        <v>-0.1969717185274198</v>
+        <v>-0.1955256981001734</v>
       </c>
       <c r="L155">
-        <v>-0.07880734922691222</v>
+        <v>-0.0786030470723742</v>
       </c>
       <c r="M155">
-        <v>0.275779067754332</v>
+        <v>0.2741287451725475</v>
       </c>
       <c r="N155">
-        <v>0.275779067754332</v>
+        <v>0.2741287451725475</v>
       </c>
       <c r="O155">
-        <v>0.5515581355086639</v>
+        <v>0.5482574903450952</v>
       </c>
       <c r="P155">
-        <v>0.01843322106053791</v>
+        <v>0.01851607740423229</v>
       </c>
       <c r="Q155" t="s">
         <v>107</v>
@@ -9110,31 +9110,31 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>0.07225426322374838</v>
+        <v>0.07292798618390568</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.9277457367762515</v>
+        <v>0.9270720138160943</v>
       </c>
       <c r="K156">
-        <v>-0.1132425285607333</v>
+        <v>-0.1140148260278224</v>
       </c>
       <c r="L156">
-        <v>-0.07624123547946716</v>
+        <v>-0.07644553763400519</v>
       </c>
       <c r="M156">
-        <v>0.1894837640402003</v>
+        <v>0.1904603636618275</v>
       </c>
       <c r="N156">
-        <v>0.1894837640402003</v>
+        <v>0.1904603636618275</v>
       </c>
       <c r="O156">
-        <v>0.3789675280804007</v>
+        <v>0.3809207273236551</v>
       </c>
       <c r="P156">
-        <v>0.005958540859532597</v>
+        <v>0.006009732890228068</v>
       </c>
       <c r="Q156" t="s">
         <v>107</v>
@@ -9269,31 +9269,31 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0.9743031271466678</v>
+        <v>0.9745523230980639</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.02569687285333229</v>
+        <v>0.02544767690193599</v>
       </c>
       <c r="K159">
-        <v>0.04987708572074234</v>
+        <v>0.05012628167213851</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
       <c r="M159">
-        <v>-0.04987708572074223</v>
+        <v>-0.05012628167213853</v>
       </c>
       <c r="N159">
-        <v>0.04987708572074234</v>
+        <v>0.05012628167213853</v>
       </c>
       <c r="O159">
-        <v>0.09975417144148457</v>
+        <v>0.100252563344277</v>
       </c>
       <c r="P159">
-        <v>0.002225470540345949</v>
+        <v>0.002204452679309395</v>
       </c>
       <c r="Q159" t="s">
         <v>110</v>
@@ -9331,19 +9331,19 @@
         <v>0.01008092816469252</v>
       </c>
       <c r="K160">
-        <v>0.01561594468863969</v>
+        <v>0.01536674873724353</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160">
-        <v>-0.01561594468863977</v>
+        <v>-0.01536674873724347</v>
       </c>
       <c r="N160">
-        <v>0.01561594468863977</v>
+        <v>0.01536674873724353</v>
       </c>
       <c r="O160">
-        <v>0.03123188937727946</v>
+        <v>0.030733497474487</v>
       </c>
       <c r="P160">
         <v>0.0008870491601805182</v>
@@ -9543,19 +9543,19 @@
         <v>0.009909004180185577</v>
       </c>
       <c r="K164">
-        <v>1.732822515287946e-05</v>
+        <v>1.732822515287946E-05</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
       <c r="M164">
-        <v>-1.732822515302691e-05</v>
+        <v>-1.732822515302691E-05</v>
       </c>
       <c r="N164">
-        <v>1.732822515302691e-05</v>
+        <v>1.732822515302691E-05</v>
       </c>
       <c r="O164">
-        <v>3.465645030590637e-05</v>
+        <v>3.465645030590637E-05</v>
       </c>
       <c r="P164">
         <v>0.0008720725170082353</v>
@@ -10329,31 +10329,31 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0.08425370202968385</v>
+        <v>0.08502851217191337</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0.9157462979703161</v>
+        <v>0.9149714878280867</v>
       </c>
       <c r="K179">
-        <v>-0.1248698606129864</v>
+        <v>-0.1240950504707569</v>
       </c>
       <c r="L179">
         <v>-0.08634079488350847</v>
       </c>
       <c r="M179">
-        <v>0.211210655496495</v>
+        <v>0.2104358453542655</v>
       </c>
       <c r="N179">
-        <v>0.211210655496495</v>
+        <v>0.2104358453542655</v>
       </c>
       <c r="O179">
-        <v>0.4224213109929899</v>
+        <v>0.4208716907085309</v>
       </c>
       <c r="P179">
-        <v>0.002857593174962115</v>
+        <v>0.002881432010731264</v>
       </c>
       <c r="Q179" t="s">
         <v>113</v>
@@ -10391,19 +10391,19 @@
         <v>0.9711731836042778</v>
       </c>
       <c r="K180">
-        <v>-0.05542688563396159</v>
+        <v>-0.05620169577619111</v>
       </c>
       <c r="L180">
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.0554268856339617</v>
+        <v>0.05620169577619116</v>
       </c>
       <c r="N180">
-        <v>0.0554268856339617</v>
+        <v>0.05620169577619116</v>
       </c>
       <c r="O180">
-        <v>0.1108537712679233</v>
+        <v>0.1124033915523823</v>
       </c>
       <c r="P180">
         <v>0.001036882631563316</v>
@@ -10541,31 +10541,31 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>0.750623274272043</v>
+        <v>0.7490307406519507</v>
       </c>
       <c r="I183">
-        <v>0.0733170409210053</v>
+        <v>0.07351492753669693</v>
       </c>
       <c r="J183">
-        <v>0.1760596848069518</v>
+        <v>0.1774543318113525</v>
       </c>
       <c r="K183">
-        <v>0.2811318483434436</v>
+        <v>0.2795393147233513</v>
       </c>
       <c r="L183">
-        <v>-0.07994290827459163</v>
+        <v>-0.0797450216589</v>
       </c>
       <c r="M183">
-        <v>-0.2011889400688516</v>
+        <v>-0.199794293064451</v>
       </c>
       <c r="N183">
-        <v>0.2811318483434436</v>
+        <v>0.2795393147233513</v>
       </c>
       <c r="O183">
-        <v>0.5622636966868868</v>
+        <v>0.5590786294467023</v>
       </c>
       <c r="P183">
-        <v>0.007410968500321886</v>
+        <v>0.00744552713164909</v>
       </c>
       <c r="Q183" t="s">
         <v>118</v>
@@ -10753,31 +10753,31 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>0.3050646656195174</v>
+        <v>0.3069931095865421</v>
       </c>
       <c r="I187">
-        <v>0.1285942249875558</v>
+        <v>0.1287568369184937</v>
       </c>
       <c r="J187">
-        <v>0.5663411093929267</v>
+        <v>0.5642500534949642</v>
       </c>
       <c r="K187">
-        <v>-0.2459278127245075</v>
+        <v>-0.2439993687574828</v>
       </c>
       <c r="L187">
-        <v>-0.003350219456888653</v>
+        <v>-0.00318760752595082</v>
       </c>
       <c r="M187">
-        <v>0.2492780321813961</v>
+        <v>0.2471869762834336</v>
       </c>
       <c r="N187">
-        <v>0.2492780321813961</v>
+        <v>0.2471869762834336</v>
       </c>
       <c r="O187">
-        <v>0.4985560643627923</v>
+        <v>0.4943739525668672</v>
       </c>
       <c r="P187">
-        <v>0.01054920042410909</v>
+        <v>0.01057034786563074</v>
       </c>
       <c r="Q187" t="s">
         <v>139</v>
@@ -10806,31 +10806,31 @@
         <v>2</v>
       </c>
       <c r="H188">
-        <v>0.1389248569976995</v>
+        <v>0.1400938339175333</v>
       </c>
       <c r="I188">
-        <v>0.04549594991762406</v>
+        <v>0.04564822692787816</v>
       </c>
       <c r="J188">
-        <v>0.8155791930846764</v>
+        <v>0.8142579391545887</v>
       </c>
       <c r="K188">
-        <v>-0.166139808621818</v>
+        <v>-0.1668992756690088</v>
       </c>
       <c r="L188">
-        <v>-0.08309827506993175</v>
+        <v>-0.08310860999061549</v>
       </c>
       <c r="M188">
-        <v>0.2492380836917497</v>
+        <v>0.2500078856596245</v>
       </c>
       <c r="N188">
-        <v>0.2492380836917497</v>
+        <v>0.2500078856596245</v>
       </c>
       <c r="O188">
-        <v>0.4984761673834994</v>
+        <v>0.5000157713192488</v>
       </c>
       <c r="P188">
-        <v>0.00580482560104833</v>
+        <v>0.005838406770376848</v>
       </c>
       <c r="Q188" t="s">
         <v>139</v>
@@ -10859,31 +10859,31 @@
         <v>2</v>
       </c>
       <c r="H189">
-        <v>0.3089264368994927</v>
+        <v>0.3108646661308292</v>
       </c>
       <c r="I189">
-        <v>0.1289198606271777</v>
+        <v>0.1290832976796911</v>
       </c>
       <c r="J189">
-        <v>0.5621537024733296</v>
+        <v>0.5600520361894796</v>
       </c>
       <c r="K189">
-        <v>0.1700015799017932</v>
+        <v>0.1707708322132959</v>
       </c>
       <c r="L189">
-        <v>0.0834239107095536</v>
+        <v>0.08343507075181293</v>
       </c>
       <c r="M189">
-        <v>-0.2534254906113468</v>
+        <v>-0.254205902965109</v>
       </c>
       <c r="N189">
-        <v>0.2534254906113468</v>
+        <v>0.254205902965109</v>
       </c>
       <c r="O189">
-        <v>0.5068509812226936</v>
+        <v>0.5084118059302178</v>
       </c>
       <c r="P189">
-        <v>0.01059124705399963</v>
+        <v>0.01061189589576893</v>
       </c>
       <c r="Q189" t="s">
         <v>140</v>
@@ -10965,31 +10965,31 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.3855570808053311</v>
+        <v>0.383490141361366</v>
       </c>
       <c r="I191">
-        <v>0.1548191242597491</v>
+        <v>0.1547552669938159</v>
       </c>
       <c r="J191">
-        <v>0.4596237949349197</v>
+        <v>0.461754591644818</v>
       </c>
       <c r="K191">
-        <v>0.1950129840261704</v>
+        <v>0.1929460445822053</v>
       </c>
       <c r="L191">
-        <v>0.07818015842410732</v>
+        <v>0.07811630115817415</v>
       </c>
       <c r="M191">
-        <v>-0.2731931424502776</v>
+        <v>-0.2710623457403794</v>
       </c>
       <c r="N191">
-        <v>0.2731931424502776</v>
+        <v>0.2710623457403794</v>
       </c>
       <c r="O191">
-        <v>0.5463862849005554</v>
+        <v>0.5421246914807587</v>
       </c>
       <c r="P191">
-        <v>0.02053742477779795</v>
+        <v>0.02052562719704131</v>
       </c>
       <c r="Q191" t="s">
         <v>112</v>
@@ -11027,19 +11027,19 @@
         <v>0.2486709636086208</v>
       </c>
       <c r="K192">
-        <v>0.2610271033031475</v>
+        <v>0.2630940427471126</v>
       </c>
       <c r="L192">
-        <v>-0.05007427197684844</v>
+        <v>-0.05001041471091527</v>
       </c>
       <c r="M192">
-        <v>-0.210952831326299</v>
+        <v>-0.2130836280361973</v>
       </c>
       <c r="N192">
-        <v>0.2610271033031475</v>
+        <v>0.2630940427471126</v>
       </c>
       <c r="O192">
-        <v>0.5220542066062949</v>
+        <v>0.5261880854942251</v>
       </c>
       <c r="P192">
         <v>0.01697067202129888</v>
@@ -11813,31 +11813,31 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>0.1304957645187313</v>
+        <v>0.1316091193221131</v>
       </c>
       <c r="I207">
-        <v>0.03911330865929068</v>
+        <v>0.03924878670496081</v>
       </c>
       <c r="J207">
-        <v>0.830390926821978</v>
+        <v>0.829142093972926</v>
       </c>
       <c r="K207">
-        <v>0.08224306092821346</v>
+        <v>0.0833564157315953</v>
       </c>
       <c r="L207">
-        <v>0.03911330865929068</v>
+        <v>0.03924878670496081</v>
       </c>
       <c r="M207">
-        <v>-0.1213563695875042</v>
+        <v>-0.1226052024365561</v>
       </c>
       <c r="N207">
-        <v>0.1213563695875042</v>
+        <v>0.1226052024365561</v>
       </c>
       <c r="O207">
-        <v>0.2427127391750083</v>
+        <v>0.2452104048731123</v>
       </c>
       <c r="P207">
-        <v>0.01081081159926412</v>
+        <v>0.01087636890576436</v>
       </c>
       <c r="Q207" t="s">
         <v>137</v>
@@ -11866,31 +11866,31 @@
         <v>2</v>
       </c>
       <c r="H208">
-        <v>0.04734244016758993</v>
+        <v>0.04779552508021069</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208">
-        <v>0.9526575598324102</v>
+        <v>0.9522044749197893</v>
       </c>
       <c r="K208">
-        <v>-0.08315332435114137</v>
+        <v>-0.08381359424190245</v>
       </c>
       <c r="L208">
-        <v>-0.03911330865929068</v>
+        <v>-0.03924878670496081</v>
       </c>
       <c r="M208">
-        <v>0.1222666330104322</v>
+        <v>0.1230623809468633</v>
       </c>
       <c r="N208">
-        <v>0.1222666330104322</v>
+        <v>0.1230623809468633</v>
       </c>
       <c r="O208">
-        <v>0.2445332660208642</v>
+        <v>0.2461247618937265</v>
       </c>
       <c r="P208">
-        <v>0.003340824705671707</v>
+        <v>0.003371193545371676</v>
       </c>
       <c r="Q208" t="s">
         <v>110</v>
@@ -11919,31 +11919,31 @@
         <v>2</v>
       </c>
       <c r="H209">
-        <v>0.128291955131791</v>
+        <v>0.1293900693801346</v>
       </c>
       <c r="I209">
-        <v>0.0388451391702246</v>
+        <v>0.03897876267625901</v>
       </c>
       <c r="J209">
-        <v>0.8328629056979843</v>
+        <v>0.8316311679436064</v>
       </c>
       <c r="K209">
-        <v>0.08094951496420105</v>
+        <v>0.08159454429992395</v>
       </c>
       <c r="L209">
-        <v>0.0388451391702246</v>
+        <v>0.03897876267625901</v>
       </c>
       <c r="M209">
-        <v>-0.1197946541344259</v>
+        <v>-0.120573306976183</v>
       </c>
       <c r="N209">
-        <v>0.1197946541344259</v>
+        <v>0.120573306976183</v>
       </c>
       <c r="O209">
-        <v>0.2395893082688516</v>
+        <v>0.2411466139523659</v>
       </c>
       <c r="P209">
-        <v>0.01068042998976366</v>
+        <v>0.0107454987596587</v>
       </c>
       <c r="Q209" t="s">
         <v>137</v>
@@ -11972,31 +11972,31 @@
         <v>3</v>
       </c>
       <c r="H210">
-        <v>0.04644833316156886</v>
+        <v>0.04689339411631479</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210">
-        <v>0.9535516668384312</v>
+        <v>0.9531066058836852</v>
       </c>
       <c r="K210">
-        <v>-0.08184362197022213</v>
+        <v>-0.08249667526381985</v>
       </c>
       <c r="L210">
-        <v>-0.0388451391702246</v>
+        <v>-0.03897876267625901</v>
       </c>
       <c r="M210">
-        <v>0.1206887611404469</v>
+        <v>0.1214754379400789</v>
       </c>
       <c r="N210">
-        <v>0.1206887611404469</v>
+        <v>0.1214754379400789</v>
       </c>
       <c r="O210">
-        <v>0.2413775222808937</v>
+        <v>0.2429508758801577</v>
       </c>
       <c r="P210">
-        <v>0.003280806333931907</v>
+        <v>0.003310696570708649</v>
       </c>
       <c r="Q210" t="s">
         <v>110</v>
@@ -12290,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="H216">
-        <v>0.1386512042695549</v>
+        <v>0.1386512042695548</v>
       </c>
       <c r="I216">
         <v>0.04243635879143075</v>
@@ -12299,7 +12299,7 @@
         <v>0.8189124369390144</v>
       </c>
       <c r="K216">
-        <v>0.08878735049057865</v>
+        <v>0.08878735049057862</v>
       </c>
       <c r="L216">
         <v>0.04243635879143075</v>
@@ -12343,7 +12343,7 @@
         <v>4</v>
       </c>
       <c r="H217">
-        <v>0.04892475919005439</v>
+        <v>0.04892475919005438</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>0.9510752408099457</v>
       </c>
       <c r="K217">
-        <v>-0.08972644507950046</v>
+        <v>-0.08972644507950045</v>
       </c>
       <c r="L217">
         <v>-0.04243635879143075</v>
@@ -12820,31 +12820,31 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>0.9501620917961909</v>
+        <v>0.9506341685042949</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>0.04983790820380907</v>
+        <v>0.04936583149570503</v>
       </c>
       <c r="K226">
-        <v>0.113883503592195</v>
+        <v>0.114355580300299</v>
       </c>
       <c r="L226">
         <v>-0.03567984570877532</v>
       </c>
       <c r="M226">
-        <v>-0.07820365788341974</v>
+        <v>-0.07867573459152377</v>
       </c>
       <c r="N226">
-        <v>0.113883503592195</v>
+        <v>0.114355580300299</v>
       </c>
       <c r="O226">
-        <v>0.2277670071843901</v>
+        <v>0.2287111606005981</v>
       </c>
       <c r="P226">
-        <v>0.002104626271541234</v>
+        <v>0.002085726496730787</v>
       </c>
       <c r="Q226" t="s">
         <v>144</v>
@@ -12882,19 +12882,19 @@
         <v>0.1370456611691361</v>
       </c>
       <c r="K227">
-        <v>-0.1239278602515504</v>
+        <v>-0.1243999369596545</v>
       </c>
       <c r="L227">
         <v>0.03672010728622345</v>
       </c>
       <c r="M227">
-        <v>0.08720775296532698</v>
+        <v>0.08767982967343102</v>
       </c>
       <c r="N227">
-        <v>0.1239278602515504</v>
+        <v>0.1243999369596545</v>
       </c>
       <c r="O227">
-        <v>0.2478557205031009</v>
+        <v>0.2487998739193089</v>
       </c>
       <c r="P227">
         <v>0.006604602557765333</v>
@@ -13085,31 +13085,31 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>0.1798477869087931</v>
+        <v>0.1867867164805466</v>
       </c>
       <c r="I231">
-        <v>0.06568044774666226</v>
+        <v>0.06666700197615746</v>
       </c>
       <c r="J231">
-        <v>0.7544717653445445</v>
+        <v>0.7465462815432958</v>
       </c>
       <c r="K231">
-        <v>-0.1713002634635218</v>
+        <v>-0.1643613338917682</v>
       </c>
       <c r="L231">
-        <v>-0.07852152058881057</v>
+        <v>-0.07753496635931537</v>
       </c>
       <c r="M231">
-        <v>0.2498217840523322</v>
+        <v>0.2418963002510836</v>
       </c>
       <c r="N231">
-        <v>0.2498217840523322</v>
+        <v>0.2418963002510836</v>
       </c>
       <c r="O231">
-        <v>0.4996435681046646</v>
+        <v>0.4837926005021672</v>
       </c>
       <c r="P231">
-        <v>0.008758071280570974</v>
+        <v>0.008962997397951221</v>
       </c>
       <c r="Q231" t="s">
         <v>131</v>
@@ -13138,31 +13138,31 @@
         <v>2</v>
       </c>
       <c r="H232">
-        <v>0.06753177106353651</v>
+        <v>0.06782369691539679</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232">
-        <v>0.9324682289364635</v>
+        <v>0.9321763030846032</v>
       </c>
       <c r="K232">
-        <v>-0.1123160158452566</v>
+        <v>-0.1189630195651499</v>
       </c>
       <c r="L232">
-        <v>-0.06568044774666226</v>
+        <v>-0.06666700197615746</v>
       </c>
       <c r="M232">
-        <v>0.177996463591919</v>
+        <v>0.1856300215413074</v>
       </c>
       <c r="N232">
-        <v>0.177996463591919</v>
+        <v>0.1856300215413074</v>
       </c>
       <c r="O232">
-        <v>0.3559929271838379</v>
+        <v>0.3712600430826147</v>
       </c>
       <c r="P232">
-        <v>0.002798721376024826</v>
+        <v>0.002809939691205564</v>
       </c>
       <c r="Q232" t="s">
         <v>131</v>
@@ -13456,31 +13456,31 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0.5132028918349534</v>
+        <v>0.511096891691435</v>
       </c>
       <c r="I238">
-        <v>0.1474758385983867</v>
+        <v>0.147566720217415</v>
       </c>
       <c r="J238">
-        <v>0.3393212695666599</v>
+        <v>0.34133638809115</v>
       </c>
       <c r="K238">
-        <v>0.2485939199029416</v>
+        <v>0.2464879197594232</v>
       </c>
       <c r="L238">
-        <v>0.03596984126386869</v>
+        <v>0.03606072288289706</v>
       </c>
       <c r="M238">
-        <v>-0.2845637611668102</v>
+        <v>-0.2825486426423202</v>
       </c>
       <c r="N238">
-        <v>0.2845637611668102</v>
+        <v>0.2825486426423202</v>
       </c>
       <c r="O238">
-        <v>0.5691275223336205</v>
+        <v>0.5650972852846404</v>
       </c>
       <c r="P238">
-        <v>0.009995579081026898</v>
+        <v>0.01000822500920861</v>
       </c>
       <c r="Q238" t="s">
         <v>119</v>
@@ -13518,19 +13518,19 @@
         <v>0.6035325184257222</v>
       </c>
       <c r="K239">
-        <v>-0.2302811203560373</v>
+        <v>-0.228175120212519</v>
       </c>
       <c r="L239">
-        <v>-0.03393012850302496</v>
+        <v>-0.03402101012205333</v>
       </c>
       <c r="M239">
-        <v>0.2642112488590623</v>
+        <v>0.2621961303345722</v>
       </c>
       <c r="N239">
-        <v>0.2642112488590623</v>
+        <v>0.2621961303345722</v>
       </c>
       <c r="O239">
-        <v>0.5284224977181246</v>
+        <v>0.5243922606691445</v>
       </c>
       <c r="P239">
         <v>0.009046852369081289</v>
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0.4835852506144996</v>
+        <v>0.4835852506144995</v>
       </c>
       <c r="I241">
         <v>0.1505783894335603</v>
@@ -13624,7 +13624,7 @@
         <v>0.3658363599519401</v>
       </c>
       <c r="K241">
-        <v>0.224658418185781</v>
+        <v>0.2246584181857809</v>
       </c>
       <c r="L241">
         <v>0.04144698631552024</v>
@@ -14198,31 +14198,31 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>0.0776302451497297</v>
+        <v>0.07834953690997942</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0.9223697548502704</v>
+        <v>0.9216504630900205</v>
       </c>
       <c r="K252">
-        <v>-0.1216555211252578</v>
+        <v>-0.1209362293650081</v>
       </c>
       <c r="L252">
         <v>-0.08130454754248967</v>
       </c>
       <c r="M252">
-        <v>0.2029600686677475</v>
+        <v>0.2022407769074976</v>
       </c>
       <c r="N252">
-        <v>0.2029600686677475</v>
+        <v>0.2022407769074976</v>
       </c>
       <c r="O252">
-        <v>0.405920137335495</v>
+        <v>0.4044815538149954</v>
       </c>
       <c r="P252">
-        <v>0.004243187566679854</v>
+        <v>0.004279163672650146</v>
       </c>
       <c r="Q252" t="s">
         <v>140</v>
@@ -14251,31 +14251,31 @@
         <v>2</v>
       </c>
       <c r="H253">
-        <v>0.02643496791315986</v>
+        <v>0.02669356708220206</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253">
-        <v>0.9735650320868401</v>
+        <v>0.9733064329177978</v>
       </c>
       <c r="K253">
-        <v>-0.05119527723656984</v>
+        <v>-0.05165596982777736</v>
       </c>
       <c r="L253">
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.05119527723656969</v>
+        <v>0.05165596982777731</v>
       </c>
       <c r="N253">
-        <v>0.05119527723656984</v>
+        <v>0.05165596982777736</v>
       </c>
       <c r="O253">
-        <v>0.1023905544731395</v>
+        <v>0.1033119396555547</v>
       </c>
       <c r="P253">
-        <v>0.001525105800568302</v>
+        <v>0.001539616033104005</v>
       </c>
       <c r="Q253" t="s">
         <v>140</v>
@@ -14675,31 +14675,31 @@
         <v>3</v>
       </c>
       <c r="H261">
-        <v>0.009999575817723051</v>
+        <v>0.01005664972246107</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0.990000424182277</v>
+        <v>0.989943350277539</v>
       </c>
       <c r="K261">
-        <v>-0.02082536348659131</v>
+        <v>-0.02076828958185328</v>
       </c>
       <c r="L261">
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.02082536348659125</v>
+        <v>0.02076828958185328</v>
       </c>
       <c r="N261">
-        <v>0.02082536348659131</v>
+        <v>0.02076828958185328</v>
       </c>
       <c r="O261">
-        <v>0.04165072697318256</v>
+        <v>0.04153657916370657</v>
       </c>
       <c r="P261">
-        <v>0.0005133117785801524</v>
+        <v>0.0005162118120870026</v>
       </c>
       <c r="Q261" t="s">
         <v>131</v>
@@ -14943,7 +14943,7 @@
         <v>0.1334571304582883</v>
       </c>
       <c r="I266">
-        <v>0.04140225961896968</v>
+        <v>0.04140225961896969</v>
       </c>
       <c r="J266">
         <v>0.825140609922742</v>
@@ -14952,7 +14952,7 @@
         <v>-0.1663953518442228</v>
       </c>
       <c r="L266">
-        <v>-0.08408965118120523</v>
+        <v>-0.08408965118120522</v>
       </c>
       <c r="M266">
         <v>0.2504850030254279</v>
@@ -14961,7 +14961,7 @@
         <v>0.2504850030254279</v>
       </c>
       <c r="O266">
-        <v>0.500970006050856</v>
+        <v>0.5009700060508558</v>
       </c>
       <c r="P266">
         <v>0.007767874620712064</v>
@@ -14999,22 +14999,22 @@
         <v>0.1251480001852978</v>
       </c>
       <c r="J267">
-        <v>0.5788115706845297</v>
+        <v>0.5788115706845298</v>
       </c>
       <c r="K267">
         <v>0.1625832986718841</v>
       </c>
       <c r="L267">
-        <v>0.08374574056632811</v>
+        <v>0.08374574056632812</v>
       </c>
       <c r="M267">
-        <v>-0.2463290392382123</v>
+        <v>-0.2463290392382121</v>
       </c>
       <c r="N267">
-        <v>0.2463290392382123</v>
+        <v>0.2463290392382121</v>
       </c>
       <c r="O267">
-        <v>0.4926580784764244</v>
+        <v>0.4926580784764243</v>
       </c>
       <c r="P267">
         <v>0.01456194983734171</v>
@@ -15058,13 +15058,13 @@
         <v>-0.1625832986718841</v>
       </c>
       <c r="L268">
-        <v>-0.08374574056632811</v>
+        <v>-0.08374574056632814</v>
       </c>
       <c r="M268">
-        <v>0.2463290392382123</v>
+        <v>0.2463290392382121</v>
       </c>
       <c r="N268">
-        <v>0.2463290392382123</v>
+        <v>0.2463290392382121</v>
       </c>
       <c r="O268">
         <v>0.4926580784764244</v>
@@ -15258,31 +15258,31 @@
         <v>2</v>
       </c>
       <c r="H272">
-        <v>0.07517277876028843</v>
+        <v>0.0744805014219308</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="J272">
-        <v>0.9248272212397116</v>
+        <v>0.9255194985780693</v>
       </c>
       <c r="K272">
-        <v>-0.1138106775125932</v>
+        <v>-0.1145029548509508</v>
       </c>
       <c r="L272">
         <v>-0.07578558225508319</v>
       </c>
       <c r="M272">
-        <v>0.1895962597676765</v>
+        <v>0.1902885371060341</v>
       </c>
       <c r="N272">
-        <v>0.1895962597676765</v>
+        <v>0.1902885371060341</v>
       </c>
       <c r="O272">
-        <v>0.3791925195353529</v>
+        <v>0.3805770742120681</v>
       </c>
       <c r="P272">
-        <v>0.004634788806249675</v>
+        <v>0.00459554375532457</v>
       </c>
       <c r="Q272" t="s">
         <v>146</v>
@@ -15320,19 +15320,19 @@
         <v>0.7318765090290246</v>
       </c>
       <c r="K273">
-        <v>0.1167488793446571</v>
+        <v>0.1174411566830148</v>
       </c>
       <c r="L273">
         <v>0.07620183286602991</v>
       </c>
       <c r="M273">
-        <v>-0.192950712210687</v>
+        <v>-0.1936429895490447</v>
       </c>
       <c r="N273">
-        <v>0.192950712210687</v>
+        <v>0.1936429895490447</v>
       </c>
       <c r="O273">
-        <v>0.3859014244213741</v>
+        <v>0.3872859790980894</v>
       </c>
       <c r="P273">
         <v>0.01405720444498647</v>
@@ -15364,31 +15364,31 @@
         <v>2</v>
       </c>
       <c r="H274">
-        <v>0.3917437719614621</v>
+        <v>0.4003817469037119</v>
       </c>
       <c r="I274">
-        <v>0.1543808640188282</v>
+        <v>0.1546625282764376</v>
       </c>
       <c r="J274">
-        <v>0.4538753640197096</v>
+        <v>0.4449557248198504</v>
       </c>
       <c r="K274">
-        <v>0.1998221138565165</v>
+        <v>0.2084600887987663</v>
       </c>
       <c r="L274">
-        <v>0.07817903115279831</v>
+        <v>0.07846069541040773</v>
       </c>
       <c r="M274">
-        <v>-0.278001145009315</v>
+        <v>-0.2869207842091742</v>
       </c>
       <c r="N274">
-        <v>0.278001145009315</v>
+        <v>0.2869207842091742</v>
       </c>
       <c r="O274">
-        <v>0.5560022900186299</v>
+        <v>0.5738415684183482</v>
       </c>
       <c r="P274">
-        <v>0.0205566839963394</v>
+        <v>0.02059294540145045</v>
       </c>
       <c r="Q274" t="s">
         <v>147</v>
@@ -15417,31 +15417,31 @@
         <v>2</v>
       </c>
       <c r="H275">
-        <v>0.6593166944729955</v>
+        <v>0.6671263908491478</v>
       </c>
       <c r="I275">
-        <v>0.1039104202977156</v>
+        <v>0.1030802028922929</v>
       </c>
       <c r="J275">
-        <v>0.2367728852292889</v>
+        <v>0.2297934062585592</v>
       </c>
       <c r="K275">
-        <v>0.2675729225115334</v>
+        <v>0.266744643945436</v>
       </c>
       <c r="L275">
-        <v>-0.05047044372111259</v>
+        <v>-0.05158232538414477</v>
       </c>
       <c r="M275">
-        <v>-0.2171024787904207</v>
+        <v>-0.2151623185612912</v>
       </c>
       <c r="N275">
-        <v>0.2675729225115334</v>
+        <v>0.266744643945436</v>
       </c>
       <c r="O275">
-        <v>0.5351458450230666</v>
+        <v>0.5334892878908719</v>
       </c>
       <c r="P275">
-        <v>0.01661475739209843</v>
+        <v>0.01638372802814541</v>
       </c>
       <c r="Q275" t="s">
         <v>147</v>
@@ -15735,31 +15735,31 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>0.9411211454839798</v>
+        <v>0.9405645410036271</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
       <c r="J281">
-        <v>0.05887885451602029</v>
+        <v>0.05943545899637286</v>
       </c>
       <c r="K281">
-        <v>0.1568988641170307</v>
+        <v>0.1563422596366779</v>
       </c>
       <c r="L281">
         <v>-0.05749293119698398</v>
       </c>
       <c r="M281">
-        <v>-0.09940593292004646</v>
+        <v>-0.09884932843969388</v>
       </c>
       <c r="N281">
-        <v>0.1568988641170307</v>
+        <v>0.1563422596366779</v>
       </c>
       <c r="O281">
-        <v>0.3137977282340612</v>
+        <v>0.3126845192733558</v>
       </c>
       <c r="P281">
-        <v>0.002462761555862291</v>
+        <v>0.002484572676011706</v>
       </c>
       <c r="Q281" t="s">
         <v>115</v>
@@ -15797,19 +15797,19 @@
         <v>0.1557271847242738</v>
       </c>
       <c r="K282">
-        <v>-0.1539836301406907</v>
+        <v>-0.1534270256603379</v>
       </c>
       <c r="L282">
         <v>0.057135299932437</v>
       </c>
       <c r="M282">
-        <v>0.09684833020825354</v>
+        <v>0.09629172572790096</v>
       </c>
       <c r="N282">
-        <v>0.1539836301406907</v>
+        <v>0.1534270256603379</v>
       </c>
       <c r="O282">
-        <v>0.3079672602813812</v>
+        <v>0.3068540513206759</v>
       </c>
       <c r="P282">
         <v>0.007842202963970568</v>
@@ -15900,7 +15900,7 @@
         <v>0.10191472747879</v>
       </c>
       <c r="J284">
-        <v>0.6583343298465181</v>
+        <v>0.6583343298465179</v>
       </c>
       <c r="K284">
         <v>-0.2157366022863076</v>
@@ -15909,16 +15909,16 @@
         <v>-0.05491495211648828</v>
       </c>
       <c r="M284">
-        <v>0.270651554402796</v>
+        <v>0.2706515544027958</v>
       </c>
       <c r="N284">
-        <v>0.270651554402796</v>
+        <v>0.2706515544027958</v>
       </c>
       <c r="O284">
-        <v>0.541303108805592</v>
+        <v>0.5413031088055917</v>
       </c>
       <c r="P284">
-        <v>0.01108286186566792</v>
+        <v>0.01108286186566793</v>
       </c>
       <c r="Q284" t="s">
         <v>103</v>
@@ -15962,13 +15962,13 @@
         <v>-0.08842324528715038</v>
       </c>
       <c r="M285">
-        <v>0.2298953953075789</v>
+        <v>0.2298953953075791</v>
       </c>
       <c r="N285">
-        <v>0.2298953953075789</v>
+        <v>0.2298953953075791</v>
       </c>
       <c r="O285">
-        <v>0.4597907906151578</v>
+        <v>0.459790790615158</v>
       </c>
       <c r="P285">
         <v>0.004471271426119343</v>
@@ -16318,31 +16318,31 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>0.4581532455114675</v>
+        <v>0.4602893800498546</v>
       </c>
       <c r="I292">
-        <v>0.1542457771293792</v>
+        <v>0.1541783222990405</v>
       </c>
       <c r="J292">
-        <v>0.3876009773591533</v>
+        <v>0.3855322976511048</v>
       </c>
       <c r="K292">
-        <v>-0.2770777159605676</v>
+        <v>-0.2749415814221805</v>
       </c>
       <c r="L292">
-        <v>0.07846019487429598</v>
+        <v>0.07839274004395733</v>
       </c>
       <c r="M292">
-        <v>0.1986175210862717</v>
+        <v>0.1965488413782232</v>
       </c>
       <c r="N292">
-        <v>0.2770777159605676</v>
+        <v>0.2749415814221805</v>
       </c>
       <c r="O292">
-        <v>0.5541554319211354</v>
+        <v>0.549883162844361</v>
       </c>
       <c r="P292">
-        <v>0.02281738245241822</v>
+        <v>0.02280472514867532</v>
       </c>
       <c r="Q292" t="s">
         <v>152</v>
@@ -16371,31 +16371,31 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>0.7284850045690108</v>
+        <v>0.730185426563854</v>
       </c>
       <c r="I293">
-        <v>0.07662268122429197</v>
+        <v>0.07641167757876544</v>
       </c>
       <c r="J293">
-        <v>0.1948923142066972</v>
+        <v>0.1934028958573806</v>
       </c>
       <c r="K293">
-        <v>0.2703317590575433</v>
+        <v>0.2698960465139993</v>
       </c>
       <c r="L293">
-        <v>-0.0776230959050872</v>
+        <v>-0.07776664472027509</v>
       </c>
       <c r="M293">
-        <v>-0.1927086631524561</v>
+        <v>-0.1921294017937242</v>
       </c>
       <c r="N293">
-        <v>0.2703317590575433</v>
+        <v>0.2698960465139993</v>
       </c>
       <c r="O293">
-        <v>0.5406635181150865</v>
+        <v>0.5397920930279986</v>
       </c>
       <c r="P293">
-        <v>0.01575761291493507</v>
+        <v>0.01568836363842002</v>
       </c>
       <c r="Q293" t="s">
         <v>151</v>
@@ -16424,31 +16424,31 @@
         <v>2</v>
       </c>
       <c r="H294">
-        <v>0.4452970824413679</v>
+        <v>0.4474444738314001</v>
       </c>
       <c r="I294">
-        <v>0.1546517488896385</v>
+        <v>0.1545839385905762</v>
       </c>
       <c r="J294">
-        <v>0.4000511686689935</v>
+        <v>0.3979715875780236</v>
       </c>
       <c r="K294">
-        <v>-0.2831879221276429</v>
+        <v>-0.2827409527324539</v>
       </c>
       <c r="L294">
-        <v>0.07802906766534654</v>
+        <v>0.07817226101181077</v>
       </c>
       <c r="M294">
-        <v>0.2051588544622963</v>
+        <v>0.204568691720643</v>
       </c>
       <c r="N294">
-        <v>0.2831879221276429</v>
+        <v>0.2827409527324539</v>
       </c>
       <c r="O294">
-        <v>0.5663758442552858</v>
+        <v>0.5654819054649076</v>
       </c>
       <c r="P294">
-        <v>0.0228797187918946</v>
+        <v>0.02287095793511829</v>
       </c>
       <c r="Q294" t="s">
         <v>152</v>
@@ -16848,31 +16848,31 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>0.7770027998383751</v>
+        <v>0.7755051722791892</v>
       </c>
       <c r="I302">
-        <v>0.06110109359480677</v>
+        <v>0.06128672442798468</v>
       </c>
       <c r="J302">
-        <v>0.1618961065668181</v>
+        <v>0.1632081032928261</v>
       </c>
       <c r="K302">
-        <v>0.2639064757119541</v>
+        <v>0.2624088481527683</v>
       </c>
       <c r="L302">
-        <v>-0.08089804840433525</v>
+        <v>-0.08071241757115732</v>
       </c>
       <c r="M302">
-        <v>-0.1830084273076189</v>
+        <v>-0.1816964305816109</v>
       </c>
       <c r="N302">
-        <v>0.2639064757119541</v>
+        <v>0.2624088481527683</v>
       </c>
       <c r="O302">
-        <v>0.5278129514239083</v>
+        <v>0.5248176963055365</v>
       </c>
       <c r="P302">
-        <v>0.006783758445987966</v>
+        <v>0.00681849592956799</v>
       </c>
       <c r="Q302" t="s">
         <v>153</v>
@@ -16910,19 +16910,19 @@
         <v>0.06417706667359445</v>
       </c>
       <c r="K303">
-        <v>0.1588201334880305</v>
+        <v>0.1603177610472163</v>
       </c>
       <c r="L303">
-        <v>-0.06110109359480677</v>
+        <v>-0.06128672442798468</v>
       </c>
       <c r="M303">
-        <v>-0.09771903989322368</v>
+        <v>-0.0990310366192317</v>
       </c>
       <c r="N303">
-        <v>0.1588201334880305</v>
+        <v>0.1603177610472163</v>
       </c>
       <c r="O303">
-        <v>0.3176402669760609</v>
+        <v>0.3206355220944327</v>
       </c>
       <c r="P303">
         <v>0.00222438410321361</v>
@@ -17272,31 +17272,31 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>0.7977255680439114</v>
+        <v>0.8006090042582696</v>
       </c>
       <c r="I310">
-        <v>0.053687910412</v>
+        <v>0.05333827400095216</v>
       </c>
       <c r="J310">
-        <v>0.1485865215440887</v>
+        <v>0.1460527217407782</v>
       </c>
       <c r="K310">
-        <v>0.2621390807484268</v>
+        <v>0.2650225169627851</v>
       </c>
       <c r="L310">
-        <v>-0.08238120405884233</v>
+        <v>-0.08273084046989017</v>
       </c>
       <c r="M310">
-        <v>-0.1797578766895845</v>
+        <v>-0.1822916764928949</v>
       </c>
       <c r="N310">
-        <v>0.2621390807484268</v>
+        <v>0.2650225169627851</v>
       </c>
       <c r="O310">
-        <v>0.5242781614968537</v>
+        <v>0.5300450339255702</v>
       </c>
       <c r="P310">
-        <v>0.003763039688667113</v>
+        <v>0.00372054281443658</v>
       </c>
       <c r="Q310" t="s">
         <v>154</v>
@@ -17431,31 +17431,31 @@
         <v>2</v>
       </c>
       <c r="H313">
-        <v>0.2663731018230515</v>
+        <v>0.2681838604782674</v>
       </c>
       <c r="I313">
-        <v>0.1166733387027462</v>
+        <v>0.1168578295175329</v>
       </c>
       <c r="J313">
-        <v>0.6169535594742023</v>
+        <v>0.6149583100041998</v>
       </c>
       <c r="K313">
-        <v>-0.2453157260549708</v>
+        <v>-0.2435049673997549</v>
       </c>
       <c r="L313">
-        <v>-0.02569372819262253</v>
+        <v>-0.02550923737783582</v>
       </c>
       <c r="M313">
-        <v>0.2710094542475934</v>
+        <v>0.2690142047775909</v>
       </c>
       <c r="N313">
-        <v>0.2710094542475934</v>
+        <v>0.2690142047775909</v>
       </c>
       <c r="O313">
-        <v>0.5420189084951866</v>
+        <v>0.5380284095551816</v>
       </c>
       <c r="P313">
-        <v>0.009903722372467267</v>
+        <v>0.009930517437337093</v>
       </c>
       <c r="Q313" t="s">
         <v>137</v>
@@ -17484,31 +17484,31 @@
         <v>2</v>
       </c>
       <c r="H314">
-        <v>0.4944997034106214</v>
+        <v>0.4966608811019432</v>
       </c>
       <c r="I314">
-        <v>0.1433172298760478</v>
+        <v>0.1431977664885519</v>
       </c>
       <c r="J314">
-        <v>0.3621830667133309</v>
+        <v>0.3601413524095049</v>
       </c>
       <c r="K314">
-        <v>0.2281266015875699</v>
+        <v>0.2284770206236758</v>
       </c>
       <c r="L314">
-        <v>0.02664389117330154</v>
+        <v>0.02633993697101898</v>
       </c>
       <c r="M314">
-        <v>-0.2547704927608714</v>
+        <v>-0.2548169575946949</v>
       </c>
       <c r="N314">
-        <v>0.2547704927608714</v>
+        <v>0.2548169575946949</v>
       </c>
       <c r="O314">
-        <v>0.5095409855217429</v>
+        <v>0.5096339151893896</v>
       </c>
       <c r="P314">
-        <v>0.01118062298395538</v>
+        <v>0.01116889953963675</v>
       </c>
       <c r="Q314" t="s">
         <v>108</v>
@@ -17908,31 +17908,31 @@
         <v>1</v>
       </c>
       <c r="H322">
-        <v>0.3575893043552113</v>
+        <v>0.359627546590773</v>
       </c>
       <c r="I322">
-        <v>0.1489431259370373</v>
+        <v>0.1490317287944113</v>
       </c>
       <c r="J322">
-        <v>0.4934675697077514</v>
+        <v>0.4913407246148158</v>
       </c>
       <c r="K322">
-        <v>-0.2689865895200407</v>
+        <v>-0.266948347284479</v>
       </c>
       <c r="L322">
-        <v>0.03822725221538327</v>
+        <v>0.03831585507275721</v>
       </c>
       <c r="M322">
-        <v>0.2307593373046575</v>
+        <v>0.2286324922117219</v>
       </c>
       <c r="N322">
-        <v>0.2689865895200407</v>
+        <v>0.266948347284479</v>
       </c>
       <c r="O322">
-        <v>0.5379731790400815</v>
+        <v>0.5338966945689582</v>
       </c>
       <c r="P322">
-        <v>0.01572240424464851</v>
+        <v>0.01573812239690544</v>
       </c>
       <c r="Q322" t="s">
         <v>104</v>
@@ -17961,31 +17961,31 @@
         <v>2</v>
       </c>
       <c r="H323">
-        <v>0.1734922119118666</v>
+        <v>0.1748715838649675</v>
       </c>
       <c r="I323">
-        <v>0.06940633433617474</v>
+        <v>0.06960304069288215</v>
       </c>
       <c r="J323">
-        <v>0.7571014537519587</v>
+        <v>0.7555253754421504</v>
       </c>
       <c r="K323">
-        <v>-0.1840970924433447</v>
+        <v>-0.1847559627258055</v>
       </c>
       <c r="L323">
-        <v>-0.07953679160086261</v>
+        <v>-0.07942868810152914</v>
       </c>
       <c r="M323">
-        <v>0.2636338840442073</v>
+        <v>0.2641846508273346</v>
       </c>
       <c r="N323">
-        <v>0.2636338840442073</v>
+        <v>0.2641846508273346</v>
       </c>
       <c r="O323">
-        <v>0.5272677680884146</v>
+        <v>0.5283693016546692</v>
       </c>
       <c r="P323">
-        <v>0.01015986745631962</v>
+        <v>0.01020850840970749</v>
       </c>
       <c r="Q323" t="s">
         <v>104</v>
@@ -18023,19 +18023,19 @@
         <v>0.4892113475927385</v>
       </c>
       <c r="K324">
-        <v>0.1881760033652383</v>
+        <v>0.1867966314121374</v>
       </c>
       <c r="L324">
-        <v>0.07971410279398186</v>
+        <v>0.07951739643727446</v>
       </c>
       <c r="M324">
-        <v>-0.2678901061592202</v>
+        <v>-0.2663140278494118</v>
       </c>
       <c r="N324">
-        <v>0.2678901061592202</v>
+        <v>0.2663140278494118</v>
       </c>
       <c r="O324">
-        <v>0.5357802123184403</v>
+        <v>0.5326280556988237</v>
       </c>
       <c r="P324">
         <v>0.0157534080841636</v>
@@ -18862,31 +18862,31 @@
         <v>1</v>
       </c>
       <c r="H340">
-        <v>0.3128078159473122</v>
+        <v>0.3108646661308292</v>
       </c>
       <c r="I340">
-        <v>0.1292471496500687</v>
+        <v>0.1290832976796911</v>
       </c>
       <c r="J340">
-        <v>0.5579450344026191</v>
+        <v>0.5600520361894796</v>
       </c>
       <c r="K340">
-        <v>-0.2381846623967128</v>
+        <v>-0.2401278122131957</v>
       </c>
       <c r="L340">
-        <v>-0.002697294794375804</v>
+        <v>-0.002861146764753381</v>
       </c>
       <c r="M340">
-        <v>0.2408819571910885</v>
+        <v>0.242988958977949</v>
       </c>
       <c r="N340">
-        <v>0.2408819571910885</v>
+        <v>0.242988958977949</v>
       </c>
       <c r="O340">
-        <v>0.4817639143821771</v>
+        <v>0.4859779179558982</v>
       </c>
       <c r="P340">
-        <v>0.01701166764963156</v>
+        <v>0.01697903343323028</v>
       </c>
       <c r="Q340" t="s">
         <v>140</v>
@@ -18924,19 +18924,19 @@
         <v>0.8102405715381276</v>
       </c>
       <c r="K341">
-        <v>-0.1691596236167689</v>
+        <v>-0.1672164738002859</v>
       </c>
       <c r="L341">
-        <v>-0.0831359135187397</v>
+        <v>-0.08297206154836212</v>
       </c>
       <c r="M341">
-        <v>0.2522955371355085</v>
+        <v>0.2501885353486479</v>
       </c>
       <c r="N341">
-        <v>0.2522955371355085</v>
+        <v>0.2501885353486479</v>
       </c>
       <c r="O341">
-        <v>0.504591074271017</v>
+        <v>0.500377070697296</v>
       </c>
       <c r="P341">
         <v>0.009503679021516337</v>
@@ -19127,31 +19127,31 @@
         <v>0</v>
       </c>
       <c r="H345">
-        <v>0.3429542311840182</v>
+        <v>0.3449675250664397</v>
       </c>
       <c r="I345">
-        <v>0.1425019747752431</v>
+        <v>0.1426182306575435</v>
       </c>
       <c r="J345">
-        <v>0.5145437940407388</v>
+        <v>0.5124142442760168</v>
       </c>
       <c r="K345">
-        <v>0.1770138926202415</v>
+        <v>0.179027186502663</v>
       </c>
       <c r="L345">
-        <v>0.08014848204200356</v>
+        <v>0.08026473792430391</v>
       </c>
       <c r="M345">
-        <v>-0.2571623746622449</v>
+        <v>-0.2592919244269669</v>
       </c>
       <c r="N345">
-        <v>0.2571623746622449</v>
+        <v>0.2592919244269669</v>
       </c>
       <c r="O345">
-        <v>0.5143247493244899</v>
+        <v>0.5185838488539338</v>
       </c>
       <c r="P345">
-        <v>0.01991067555040989</v>
+        <v>0.01993630297322285</v>
       </c>
       <c r="Q345" t="s">
         <v>156</v>
@@ -19189,19 +19189,19 @@
         <v>0.2950473326212925</v>
       </c>
       <c r="K346">
-        <v>0.2426842241659138</v>
+        <v>0.2406709302834923</v>
       </c>
       <c r="L346">
-        <v>-0.02318776274646768</v>
+        <v>-0.02330401862876803</v>
       </c>
       <c r="M346">
-        <v>-0.2194964614194463</v>
+        <v>-0.2173669116547243</v>
       </c>
       <c r="N346">
-        <v>0.2426842241659138</v>
+        <v>0.2406709302834923</v>
       </c>
       <c r="O346">
-        <v>0.4853684483318277</v>
+        <v>0.4813418605669846</v>
       </c>
       <c r="P346">
         <v>0.01852462633121195</v>
@@ -19657,31 +19657,31 @@
         <v>1</v>
       </c>
       <c r="H355">
-        <v>0.07500239279347637</v>
+        <v>0.07569964939850489</v>
       </c>
       <c r="I355">
         <v>0</v>
       </c>
       <c r="J355">
-        <v>0.9249976072065237</v>
+        <v>0.9243003506014952</v>
       </c>
       <c r="K355">
-        <v>-0.1218728580969031</v>
+        <v>-0.1211756014918746</v>
       </c>
       <c r="L355">
         <v>-0.08003679852805888</v>
       </c>
       <c r="M355">
-        <v>0.2019096566249622</v>
+        <v>0.2012124000199337</v>
       </c>
       <c r="N355">
-        <v>0.2019096566249622</v>
+        <v>0.2012124000199337</v>
       </c>
       <c r="O355">
-        <v>0.4038193132499241</v>
+        <v>0.4024248000398671</v>
       </c>
       <c r="P355">
-        <v>0.003083423727499086</v>
+        <v>0.003109742776864369</v>
       </c>
       <c r="Q355" t="s">
         <v>110</v>
@@ -19710,31 +19710,31 @@
         <v>2</v>
       </c>
       <c r="H356">
-        <v>0.02357548643678151</v>
+        <v>0.02305048291305043</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
       <c r="J356">
-        <v>0.9764245135632185</v>
+        <v>0.9769495170869495</v>
       </c>
       <c r="K356">
-        <v>-0.05142690635669486</v>
+        <v>-0.05264916648545445</v>
       </c>
       <c r="L356">
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.05142690635669478</v>
+        <v>0.05264916648545437</v>
       </c>
       <c r="N356">
-        <v>0.05142690635669486</v>
+        <v>0.05264916648545445</v>
       </c>
       <c r="O356">
-        <v>0.1028538127133896</v>
+        <v>0.1052983329709088</v>
       </c>
       <c r="P356">
-        <v>0.001023097016713362</v>
+        <v>0.001000851473356694</v>
       </c>
       <c r="Q356" t="s">
         <v>110</v>
@@ -19763,31 +19763,31 @@
         <v>2</v>
       </c>
       <c r="H357">
-        <v>0.073624907691426</v>
+        <v>0.07207105946675889</v>
       </c>
       <c r="I357">
         <v>0</v>
       </c>
       <c r="J357">
-        <v>0.9263750923085741</v>
+        <v>0.9279289405332412</v>
       </c>
       <c r="K357">
-        <v>0.0500494212546445</v>
+        <v>0.04902057655370845</v>
       </c>
       <c r="L357">
         <v>0</v>
       </c>
       <c r="M357">
-        <v>-0.0500494212546444</v>
+        <v>-0.04902057655370839</v>
       </c>
       <c r="N357">
-        <v>0.0500494212546445</v>
+        <v>0.04902057655370845</v>
       </c>
       <c r="O357">
-        <v>0.1000988425092889</v>
+        <v>0.09804115310741685</v>
       </c>
       <c r="P357">
-        <v>0.003031301362615777</v>
+        <v>0.002972303193515457</v>
       </c>
       <c r="Q357" t="s">
         <v>136</v>
@@ -20090,19 +20090,19 @@
         <v>0.9900842579051375</v>
       </c>
       <c r="K363">
-        <v>-3.189640820829356e-05</v>
+        <v>-3.189640820829356E-05</v>
       </c>
       <c r="L363">
         <v>0</v>
       </c>
       <c r="M363">
-        <v>3.189640820822071e-05</v>
+        <v>3.189640820822071E-05</v>
       </c>
       <c r="N363">
-        <v>3.189640820829356e-05</v>
+        <v>3.189640820829356E-05</v>
       </c>
       <c r="O363">
-        <v>6.379281641651427e-05</v>
+        <v>6.379281641651427E-05</v>
       </c>
       <c r="P363">
         <v>0.0007272163076718971</v>
@@ -20505,31 +20505,31 @@
         <v>2</v>
       </c>
       <c r="H371">
-        <v>0.0100989901009899</v>
+        <v>0.01004875136802308</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371">
-        <v>0.9899010098990101</v>
+        <v>0.9899512486319769</v>
       </c>
       <c r="K371">
-        <v>-0.02055443993072561</v>
+        <v>-0.02060467866369243</v>
       </c>
       <c r="L371">
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.02055443993072559</v>
+        <v>0.02060467866369242</v>
       </c>
       <c r="N371">
-        <v>0.02055443993072561</v>
+        <v>0.02060467866369243</v>
       </c>
       <c r="O371">
-        <v>0.0411088798614512</v>
+        <v>0.04120935732738485</v>
       </c>
       <c r="P371">
-        <v>0.0004443111333302229</v>
+        <v>0.0004421232872874105</v>
       </c>
       <c r="Q371" t="s">
         <v>110</v>
@@ -20558,31 +20558,31 @@
         <v>3</v>
       </c>
       <c r="H372">
-        <v>0.01013262864116139</v>
+        <v>0.01008171252749615</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372">
-        <v>0.9898673713588386</v>
+        <v>0.9899182874725039</v>
       </c>
       <c r="K372">
-        <v>3.36385401714899e-05</v>
+        <v>3.296115947306125E-05</v>
       </c>
       <c r="L372">
         <v>0</v>
       </c>
       <c r="M372">
-        <v>-3.363854017146561e-05</v>
+        <v>-3.29611594730439E-05</v>
       </c>
       <c r="N372">
-        <v>3.36385401714899e-05</v>
+        <v>3.296115947306125E-05</v>
       </c>
       <c r="O372">
-        <v>6.727708034295551e-05</v>
+        <v>6.592231894610515E-05</v>
       </c>
       <c r="P372">
-        <v>0.0004457759323547423</v>
+        <v>0.0004435587377781805</v>
       </c>
       <c r="Q372" t="s">
         <v>110</v>
@@ -20823,31 +20823,31 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>0.7590731777443933</v>
+        <v>0.7575100620319252</v>
       </c>
       <c r="I377">
-        <v>0.06944497420546658</v>
+        <v>0.06964002855749804</v>
       </c>
       <c r="J377">
-        <v>0.1714818480501402</v>
+        <v>0.1728499094105767</v>
       </c>
       <c r="K377">
-        <v>0.2755345792038597</v>
+        <v>0.2739714634913915</v>
       </c>
       <c r="L377">
-        <v>-0.08021488974011165</v>
+        <v>-0.08001983538808019</v>
       </c>
       <c r="M377">
-        <v>-0.1953196894637478</v>
+        <v>-0.1939516281033113</v>
       </c>
       <c r="N377">
-        <v>0.2755345792038597</v>
+        <v>0.2739714634913915</v>
       </c>
       <c r="O377">
-        <v>0.5510691584077191</v>
+        <v>0.5479429269827829</v>
       </c>
       <c r="P377">
-        <v>0.01298597607253132</v>
+        <v>0.0130483893719885</v>
       </c>
       <c r="Q377" t="s">
         <v>157</v>
@@ -20876,31 +20876,31 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>0.5005428663567016</v>
+        <v>0.4984259820395607</v>
       </c>
       <c r="I378">
-        <v>0.1489642778657381</v>
+        <v>0.1490508723183517</v>
       </c>
       <c r="J378">
-        <v>0.3504928557775601</v>
+        <v>0.3525231456420876</v>
       </c>
       <c r="K378">
-        <v>-0.2585303113876917</v>
+        <v>-0.2590840799923645</v>
       </c>
       <c r="L378">
-        <v>0.07951930366027155</v>
+        <v>0.07941084376085361</v>
       </c>
       <c r="M378">
-        <v>0.1790110077274199</v>
+        <v>0.1796732362315109</v>
       </c>
       <c r="N378">
-        <v>0.2585303113876917</v>
+        <v>0.2590840799923645</v>
       </c>
       <c r="O378">
-        <v>0.5170606227753831</v>
+        <v>0.518168159984729</v>
       </c>
       <c r="P378">
-        <v>0.02014737469694155</v>
+        <v>0.02016942698918818</v>
       </c>
       <c r="Q378" t="s">
         <v>147</v>
@@ -20929,31 +20929,31 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>0.7590731777443933</v>
+        <v>0.7575100620319252</v>
       </c>
       <c r="I379">
-        <v>0.06944497420546658</v>
+        <v>0.06964002855749804</v>
       </c>
       <c r="J379">
-        <v>0.1714818480501402</v>
+        <v>0.1728499094105767</v>
       </c>
       <c r="K379">
-        <v>0.2585303113876917</v>
+        <v>0.2590840799923645</v>
       </c>
       <c r="L379">
-        <v>-0.07951930366027155</v>
+        <v>-0.07941084376085361</v>
       </c>
       <c r="M379">
-        <v>-0.1790110077274199</v>
+        <v>-0.1796732362315109</v>
       </c>
       <c r="N379">
-        <v>0.2585303113876917</v>
+        <v>0.2590840799923645</v>
       </c>
       <c r="O379">
-        <v>0.5170606227753831</v>
+        <v>0.518168159984729</v>
       </c>
       <c r="P379">
-        <v>0.01298597607253132</v>
+        <v>0.0130483893719885</v>
       </c>
       <c r="Q379" t="s">
         <v>157</v>
@@ -21035,31 +21035,31 @@
         <v>1</v>
       </c>
       <c r="H381">
-        <v>0.1197312663914426</v>
+        <v>0.120771104853961</v>
       </c>
       <c r="I381">
-        <v>0.03031799579843234</v>
+        <v>0.03042762572925311</v>
       </c>
       <c r="J381">
-        <v>0.8499507378101251</v>
+        <v>0.8488012694167859</v>
       </c>
       <c r="K381">
-        <v>-0.1564169897178444</v>
+        <v>-0.155377151255326</v>
       </c>
       <c r="L381">
-        <v>-0.08589941471858049</v>
+        <v>-0.08578978478775971</v>
       </c>
       <c r="M381">
-        <v>0.2423164044364249</v>
+        <v>0.2411669360430857</v>
       </c>
       <c r="N381">
-        <v>0.2423164044364249</v>
+        <v>0.2411669360430857</v>
       </c>
       <c r="O381">
-        <v>0.4846328088728498</v>
+        <v>0.4823338720861715</v>
       </c>
       <c r="P381">
-        <v>0.008744299542503057</v>
+        <v>0.008800830162042896</v>
       </c>
       <c r="Q381" t="s">
         <v>122</v>
@@ -21088,31 +21088,31 @@
         <v>1</v>
       </c>
       <c r="H382">
-        <v>0.2652262442076098</v>
+        <v>0.2670316181166781</v>
       </c>
       <c r="I382">
-        <v>0.1150730570288137</v>
+        <v>0.1152622150290928</v>
       </c>
       <c r="J382">
-        <v>0.6197006987635766</v>
+        <v>0.6177061668542291</v>
       </c>
       <c r="K382">
-        <v>0.1454949778161671</v>
+        <v>0.1462605132627172</v>
       </c>
       <c r="L382">
-        <v>0.08475506123038133</v>
+        <v>0.08483458929983967</v>
       </c>
       <c r="M382">
-        <v>-0.2302500390465485</v>
+        <v>-0.2310951025625568</v>
       </c>
       <c r="N382">
-        <v>0.2302500390465485</v>
+        <v>0.2310951025625568</v>
       </c>
       <c r="O382">
-        <v>0.460500078093097</v>
+        <v>0.4621902051251137</v>
       </c>
       <c r="P382">
-        <v>0.01774614249605012</v>
+        <v>0.01779492760476103</v>
       </c>
       <c r="Q382" t="s">
         <v>140</v>
@@ -21141,31 +21141,31 @@
         <v>2</v>
       </c>
       <c r="H383">
-        <v>0.1156457782068349</v>
+        <v>0.1166562283772611</v>
       </c>
       <c r="I383">
-        <v>0.02988726371533272</v>
+        <v>0.02999379524525264</v>
       </c>
       <c r="J383">
-        <v>0.8544669580778325</v>
+        <v>0.8533499763774863</v>
       </c>
       <c r="K383">
-        <v>-0.1495804660007749</v>
+        <v>-0.1503753897394171</v>
       </c>
       <c r="L383">
-        <v>-0.08518579331348095</v>
+        <v>-0.08526841978384014</v>
       </c>
       <c r="M383">
-        <v>0.2347662593142559</v>
+        <v>0.2356438095232573</v>
       </c>
       <c r="N383">
-        <v>0.2347662593142559</v>
+        <v>0.2356438095232573</v>
       </c>
       <c r="O383">
-        <v>0.4695325186285117</v>
+        <v>0.4712876190465144</v>
       </c>
       <c r="P383">
-        <v>0.008520634100125383</v>
+        <v>0.008576183814804057</v>
       </c>
       <c r="Q383" t="s">
         <v>122</v>
@@ -21203,19 +21203,19 @@
         <v>0.9565291425886061</v>
       </c>
       <c r="K384">
-        <v>-0.07217492079544098</v>
+        <v>-0.07318537096586716</v>
       </c>
       <c r="L384">
-        <v>-0.02988726371533272</v>
+        <v>-0.02999379524525264</v>
       </c>
       <c r="M384">
-        <v>0.1020621845107736</v>
+        <v>0.1031791662111198</v>
       </c>
       <c r="N384">
-        <v>0.1020621845107736</v>
+        <v>0.1031791662111198</v>
       </c>
       <c r="O384">
-        <v>0.2041243690215473</v>
+        <v>0.2063583324222396</v>
       </c>
       <c r="P384">
         <v>0.002772076131154144</v>
@@ -21565,31 +21565,31 @@
         <v>3</v>
       </c>
       <c r="H391">
-        <v>0.01087520043416123</v>
+        <v>0.01098331476983603</v>
       </c>
       <c r="I391">
         <v>0</v>
       </c>
       <c r="J391">
-        <v>0.9891247995658388</v>
+        <v>0.9890166852301639</v>
       </c>
       <c r="K391">
-        <v>-0.02208166113321889</v>
+        <v>-0.02197354679754408</v>
       </c>
       <c r="L391">
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.02208166113321886</v>
+        <v>0.02197354679754404</v>
       </c>
       <c r="N391">
-        <v>0.02208166113321889</v>
+        <v>0.02197354679754408</v>
       </c>
       <c r="O391">
-        <v>0.04416332226643774</v>
+        <v>0.04394709359508812</v>
       </c>
       <c r="P391">
-        <v>0.0004780857977634691</v>
+        <v>0.0004827858474001219</v>
       </c>
       <c r="Q391" t="s">
         <v>153</v>
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="J394">
-        <v>0.06246997934534435</v>
+        <v>0.06246997934534434</v>
       </c>
       <c r="K394">
         <v>0.157833268298799</v>
@@ -21777,31 +21777,31 @@
         <v>1</v>
       </c>
       <c r="H395">
-        <v>0.7736756568043235</v>
+        <v>0.7751950303203993</v>
       </c>
       <c r="I395">
-        <v>0.06000872732126074</v>
+        <v>0.0598213636903323</v>
       </c>
       <c r="J395">
-        <v>0.1663156158744157</v>
+        <v>0.1649836059892685</v>
       </c>
       <c r="K395">
-        <v>-0.1638543638503323</v>
+        <v>-0.1623349903342565</v>
       </c>
       <c r="L395">
-        <v>0.06000872732126074</v>
+        <v>0.0598213636903323</v>
       </c>
       <c r="M395">
-        <v>0.1038456365290714</v>
+        <v>0.1025136266439242</v>
       </c>
       <c r="N395">
-        <v>0.1638543638503323</v>
+        <v>0.1623349903342565</v>
       </c>
       <c r="O395">
-        <v>0.3277087277006643</v>
+        <v>0.3246699806685129</v>
       </c>
       <c r="P395">
-        <v>0.01370977950481463</v>
+        <v>0.01363979552472452</v>
       </c>
       <c r="Q395" t="s">
         <v>149</v>
@@ -21830,31 +21830,31 @@
         <v>1</v>
       </c>
       <c r="H396">
-        <v>0.9363480920636016</v>
+        <v>0.9369416834418859</v>
       </c>
       <c r="I396">
         <v>0</v>
       </c>
       <c r="J396">
-        <v>0.06365190793639842</v>
+        <v>0.0630583165581142</v>
       </c>
       <c r="K396">
-        <v>0.1626724352592781</v>
+        <v>0.1617466531214866</v>
       </c>
       <c r="L396">
-        <v>-0.06000872732126074</v>
+        <v>-0.0598213636903323</v>
       </c>
       <c r="M396">
-        <v>-0.1026637079380173</v>
+        <v>-0.1019252894311543</v>
       </c>
       <c r="N396">
-        <v>0.1626724352592781</v>
+        <v>0.1617466531214866</v>
       </c>
       <c r="O396">
-        <v>0.3253448705185561</v>
+        <v>0.3234933062429732</v>
       </c>
       <c r="P396">
-        <v>0.004414840189070717</v>
+        <v>0.004376441871923764</v>
       </c>
       <c r="Q396" t="s">
         <v>158</v>
@@ -22042,31 +22042,31 @@
         <v>2</v>
       </c>
       <c r="H400">
-        <v>0.05546655118584512</v>
+        <v>0.05546655118584513</v>
       </c>
       <c r="I400">
         <v>0</v>
       </c>
       <c r="J400">
-        <v>0.9445334488141549</v>
+        <v>0.9445334488141548</v>
       </c>
       <c r="K400">
-        <v>-0.09543535060324537</v>
+        <v>-0.09543535060324536</v>
       </c>
       <c r="L400">
         <v>-0.05258171482709616</v>
       </c>
       <c r="M400">
-        <v>0.1480170654303414</v>
+        <v>0.1480170654303413</v>
       </c>
       <c r="N400">
-        <v>0.1480170654303414</v>
+        <v>0.1480170654303413</v>
       </c>
       <c r="O400">
-        <v>0.296034130860683</v>
+        <v>0.2960341308606829</v>
       </c>
       <c r="P400">
-        <v>0.003880741695214306</v>
+        <v>0.00388074169521431</v>
       </c>
       <c r="Q400" t="s">
         <v>102</v>
@@ -22095,19 +22095,19 @@
         <v>2</v>
       </c>
       <c r="H401">
-        <v>0.1484345677063945</v>
+        <v>0.1484345677063946</v>
       </c>
       <c r="I401">
-        <v>0.05224441730316216</v>
+        <v>0.05224441730316218</v>
       </c>
       <c r="J401">
-        <v>0.7993210149904434</v>
+        <v>0.7993210149904433</v>
       </c>
       <c r="K401">
-        <v>0.09296801652054942</v>
+        <v>0.09296801652054944</v>
       </c>
       <c r="L401">
-        <v>0.05224441730316216</v>
+        <v>0.05224441730316218</v>
       </c>
       <c r="M401">
         <v>-0.1452124338237115</v>
@@ -22148,31 +22148,31 @@
         <v>3</v>
       </c>
       <c r="H402">
-        <v>0.05442777855719448</v>
+        <v>0.05494489175871959</v>
       </c>
       <c r="I402">
         <v>0</v>
       </c>
       <c r="J402">
-        <v>0.9455722214428055</v>
+        <v>0.9450551082412804</v>
       </c>
       <c r="K402">
-        <v>-0.09400678914920006</v>
+        <v>-0.09348967594767499</v>
       </c>
       <c r="L402">
-        <v>-0.05224441730316216</v>
+        <v>-0.05224441730316218</v>
       </c>
       <c r="M402">
-        <v>0.1462512064523621</v>
+        <v>0.1457340932508371</v>
       </c>
       <c r="N402">
-        <v>0.1462512064523621</v>
+        <v>0.1457340932508371</v>
       </c>
       <c r="O402">
-        <v>0.2925024129047243</v>
+        <v>0.2914681865016743</v>
       </c>
       <c r="P402">
-        <v>0.003812251516927666</v>
+        <v>0.003846366713210533</v>
       </c>
       <c r="Q402" t="s">
         <v>102</v>
@@ -22307,31 +22307,31 @@
         <v>1</v>
       </c>
       <c r="H405">
-        <v>0.7382619727360512</v>
+        <v>0.7366116501542668</v>
       </c>
       <c r="I405">
-        <v>0.07624123547946716</v>
+        <v>0.07644553763400519</v>
       </c>
       <c r="J405">
-        <v>0.1854967917844817</v>
+        <v>0.186942812211728</v>
       </c>
       <c r="K405">
-        <v>-0.1853558059721027</v>
+        <v>-0.1870061285538871</v>
       </c>
       <c r="L405">
-        <v>0.07624123547946716</v>
+        <v>0.07644553763400519</v>
       </c>
       <c r="M405">
-        <v>0.1091145704926356</v>
+        <v>0.1105605909198819</v>
       </c>
       <c r="N405">
-        <v>0.1853558059721027</v>
+        <v>0.1870061285538871</v>
       </c>
       <c r="O405">
-        <v>0.3707116119442054</v>
+        <v>0.3740122571077742</v>
       </c>
       <c r="P405">
-        <v>0.007680508775224131</v>
+        <v>0.007715032251763456</v>
       </c>
       <c r="Q405" t="s">
         <v>150</v>
@@ -22360,31 +22360,31 @@
         <v>1</v>
       </c>
       <c r="H406">
-        <v>0.9277457367762515</v>
+        <v>0.9270720138160943</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406">
-        <v>0.07225426322374838</v>
+        <v>0.07292798618390568</v>
       </c>
       <c r="K406">
-        <v>0.1894837640402003</v>
+        <v>0.1904603636618275</v>
       </c>
       <c r="L406">
-        <v>-0.07624123547946716</v>
+        <v>-0.07644553763400519</v>
       </c>
       <c r="M406">
-        <v>-0.1132425285607333</v>
+        <v>-0.1140148260278224</v>
       </c>
       <c r="N406">
-        <v>0.1894837640402003</v>
+        <v>0.1904603636618275</v>
       </c>
       <c r="O406">
-        <v>0.3789675280804007</v>
+        <v>0.3809207273236551</v>
       </c>
       <c r="P406">
-        <v>0.002482725358138582</v>
+        <v>0.002504055370928361</v>
       </c>
       <c r="Q406" t="s">
         <v>115</v>
@@ -22890,31 +22890,31 @@
         <v>1</v>
       </c>
       <c r="H416">
-        <v>0.359387037579751</v>
+        <v>0.357350766179358</v>
       </c>
       <c r="I416">
-        <v>0.1458738681277301</v>
+        <v>0.1457689817268562</v>
       </c>
       <c r="J416">
-        <v>0.4947390942925189</v>
+        <v>0.4968802520937858</v>
       </c>
       <c r="K416">
-        <v>0.1877073519894687</v>
+        <v>0.1856710805890756</v>
       </c>
       <c r="L416">
-        <v>0.08001679199508177</v>
+        <v>0.07991190559420794</v>
       </c>
       <c r="M416">
-        <v>-0.2677241439845505</v>
+        <v>-0.2655829861832836</v>
       </c>
       <c r="N416">
-        <v>0.2677241439845505</v>
+        <v>0.2655829861832836</v>
       </c>
       <c r="O416">
-        <v>0.5354482879691009</v>
+        <v>0.5311659723665672</v>
       </c>
       <c r="P416">
-        <v>0.01567987038062984</v>
+        <v>0.01566345534331815</v>
       </c>
       <c r="Q416" t="s">
         <v>134</v>
@@ -22943,31 +22943,31 @@
         <v>1</v>
       </c>
       <c r="H417">
-        <v>0.6170984058877923</v>
+        <v>0.6150879949711771</v>
       </c>
       <c r="I417">
-        <v>0.1142630993581387</v>
+        <v>0.1144574690323503</v>
       </c>
       <c r="J417">
-        <v>0.268638494754069</v>
+        <v>0.2704545359964726</v>
       </c>
       <c r="K417">
-        <v>0.2577113683080413</v>
+        <v>0.2577372287918191</v>
       </c>
       <c r="L417">
-        <v>-0.03161076876959139</v>
+        <v>-0.03131151269450591</v>
       </c>
       <c r="M417">
-        <v>-0.2261005995384499</v>
+        <v>-0.2264257160973132</v>
       </c>
       <c r="N417">
-        <v>0.2577113683080413</v>
+        <v>0.2577372287918191</v>
       </c>
       <c r="O417">
-        <v>0.5154227366160826</v>
+        <v>0.5154744575836381</v>
       </c>
       <c r="P417">
-        <v>0.01384358527772074</v>
+        <v>0.01388127456032537</v>
       </c>
       <c r="Q417" t="s">
         <v>134</v>
@@ -23049,31 +23049,31 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <v>0.9175059352629634</v>
+        <v>0.9167458358576602</v>
       </c>
       <c r="I419">
         <v>0</v>
       </c>
       <c r="J419">
-        <v>0.08249406473703653</v>
+        <v>0.08325416414233985</v>
       </c>
       <c r="K419">
-        <v>0.2079838614417423</v>
+        <v>0.2072237620364391</v>
       </c>
       <c r="L419">
         <v>-0.08466819221967964</v>
       </c>
       <c r="M419">
-        <v>-0.1233156692220627</v>
+        <v>-0.1225555698167594</v>
       </c>
       <c r="N419">
-        <v>0.2079838614417423</v>
+        <v>0.2072237620364391</v>
       </c>
       <c r="O419">
-        <v>0.4159677228834846</v>
+        <v>0.4144475240728781</v>
       </c>
       <c r="P419">
-        <v>0.003924604134380646</v>
+        <v>0.003957484133830377</v>
       </c>
       <c r="Q419" t="s">
         <v>125</v>
@@ -23102,31 +23102,31 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>0.9723536334264219</v>
+        <v>0.9720835235974504</v>
       </c>
       <c r="I420">
         <v>0</v>
       </c>
       <c r="J420">
-        <v>0.02764636657357809</v>
+        <v>0.0279164764025495</v>
       </c>
       <c r="K420">
-        <v>0.05484769816345847</v>
+        <v>0.0553376877397902</v>
       </c>
       <c r="L420">
         <v>0</v>
       </c>
       <c r="M420">
-        <v>-0.05484769816345845</v>
+        <v>-0.05533768773979035</v>
       </c>
       <c r="N420">
-        <v>0.05484769816345847</v>
+        <v>0.05533768773979035</v>
       </c>
       <c r="O420">
-        <v>0.1096953963269169</v>
+        <v>0.1106753754795805</v>
       </c>
       <c r="P420">
-        <v>0.001393883814237052</v>
+        <v>0.001407111312849689</v>
       </c>
       <c r="Q420" t="s">
         <v>125</v>
@@ -23155,31 +23155,31 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>0.9902972715523003</v>
+        <v>0.9903933042468093</v>
       </c>
       <c r="I421">
         <v>0</v>
       </c>
       <c r="J421">
-        <v>0.009702728447699718</v>
+        <v>0.009606695753190727</v>
       </c>
       <c r="K421">
-        <v>0.0179436381258784</v>
+        <v>0.01830978064935884</v>
       </c>
       <c r="L421">
         <v>0</v>
       </c>
       <c r="M421">
-        <v>-0.01794363812587837</v>
+        <v>-0.01830978064935877</v>
       </c>
       <c r="N421">
-        <v>0.0179436381258784</v>
+        <v>0.01830978064935884</v>
       </c>
       <c r="O421">
-        <v>0.03588727625175677</v>
+        <v>0.03661956129871762</v>
       </c>
       <c r="P421">
-        <v>0.0004982229522858472</v>
+        <v>0.0004933396299946259</v>
       </c>
       <c r="Q421" t="s">
         <v>125</v>
@@ -23261,31 +23261,31 @@
         <v>1</v>
       </c>
       <c r="H423">
-        <v>0.1021617537063589</v>
+        <v>0.1012534300751009</v>
       </c>
       <c r="I423">
-        <v>0.01047352168640597</v>
+        <v>0.01043204503572848</v>
       </c>
       <c r="J423">
-        <v>0.8873647246072351</v>
+        <v>0.8883145248891706</v>
       </c>
       <c r="K423">
-        <v>-0.134673221043133</v>
+        <v>-0.1355815446743909</v>
       </c>
       <c r="L423">
-        <v>-0.08903120591377413</v>
+        <v>-0.08907268256445162</v>
       </c>
       <c r="M423">
-        <v>0.2237044269569071</v>
+        <v>0.2246542272388425</v>
       </c>
       <c r="N423">
-        <v>0.2237044269569071</v>
+        <v>0.2246542272388425</v>
       </c>
       <c r="O423">
-        <v>0.4474088539138141</v>
+        <v>0.449308454477685</v>
       </c>
       <c r="P423">
-        <v>0.005237999587485036</v>
+        <v>0.00519908719050846</v>
       </c>
       <c r="Q423" t="s">
         <v>115</v>
@@ -23323,19 +23323,19 @@
         <v>0.6559869283475348</v>
       </c>
       <c r="K424">
-        <v>0.1414898540613378</v>
+        <v>0.1423981776925958</v>
       </c>
       <c r="L424">
-        <v>0.08988794219836245</v>
+        <v>0.08992941884903995</v>
       </c>
       <c r="M424">
-        <v>-0.2313777962597003</v>
+        <v>-0.2323275965416358</v>
       </c>
       <c r="N424">
-        <v>0.2313777962597003</v>
+        <v>0.2323275965416358</v>
       </c>
       <c r="O424">
-        <v>0.4627555925194006</v>
+        <v>0.4646551930832716</v>
       </c>
       <c r="P424">
         <v>0.01296925312242231</v>
@@ -23526,31 +23526,31 @@
         <v>2</v>
       </c>
       <c r="H428">
-        <v>0.5884029640383902</v>
+        <v>0.5863572908827608</v>
       </c>
       <c r="I428">
-        <v>0.1249069033462028</v>
+        <v>0.125073962465332</v>
       </c>
       <c r="J428">
-        <v>0.286690132615407</v>
+        <v>0.2885687466519072</v>
       </c>
       <c r="K428">
-        <v>-0.2320461879620391</v>
+        <v>-0.2340918611176686</v>
       </c>
       <c r="L428">
-        <v>0.08230278654390502</v>
+        <v>0.08246984566303425</v>
       </c>
       <c r="M428">
-        <v>0.1497434014181342</v>
+        <v>0.1516220154546344</v>
       </c>
       <c r="N428">
-        <v>0.2320461879620391</v>
+        <v>0.2340918611176686</v>
       </c>
       <c r="O428">
-        <v>0.4640923759240783</v>
+        <v>0.4681837222353372</v>
       </c>
       <c r="P428">
-        <v>0.01441452924769562</v>
+        <v>0.01444773321697475</v>
       </c>
       <c r="Q428" t="s">
         <v>114</v>
@@ -23579,31 +23579,31 @@
         <v>2</v>
       </c>
       <c r="H429">
-        <v>0.8330036103885342</v>
+        <v>0.8317856268122537</v>
       </c>
       <c r="I429">
-        <v>0.04119623063398313</v>
+        <v>0.04133281814554832</v>
       </c>
       <c r="J429">
-        <v>0.1258001589774826</v>
+        <v>0.1268815550421981</v>
       </c>
       <c r="K429">
-        <v>0.244600646350144</v>
+        <v>0.2454283359294929</v>
       </c>
       <c r="L429">
-        <v>-0.08371067271221964</v>
+        <v>-0.08374114431978369</v>
       </c>
       <c r="M429">
-        <v>-0.1608899736379244</v>
+        <v>-0.1616871916097092</v>
       </c>
       <c r="N429">
-        <v>0.244600646350144</v>
+        <v>0.2454283359294929</v>
       </c>
       <c r="O429">
-        <v>0.4892012927002881</v>
+        <v>0.4908566718589857</v>
       </c>
       <c r="P429">
-        <v>0.007481760109767452</v>
+        <v>0.007526953263479144</v>
       </c>
       <c r="Q429" t="s">
         <v>110</v>
@@ -23685,31 +23685,31 @@
         <v>1</v>
       </c>
       <c r="H431">
-        <v>0.1009074938633111</v>
+        <v>0.1018119831948096</v>
       </c>
       <c r="I431">
-        <v>0.01273362752491134</v>
+        <v>0.01278320438915138</v>
       </c>
       <c r="J431">
-        <v>0.8863588786117776</v>
+        <v>0.8854048124160391</v>
       </c>
       <c r="K431">
-        <v>-0.1404421397041747</v>
+        <v>-0.1395376503726762</v>
       </c>
       <c r="L431">
-        <v>-0.08879377588928453</v>
+        <v>-0.08874419902504449</v>
       </c>
       <c r="M431">
-        <v>0.2292359155934593</v>
+        <v>0.2282818493977208</v>
       </c>
       <c r="N431">
-        <v>0.2292359155934593</v>
+        <v>0.2282818493977208</v>
       </c>
       <c r="O431">
-        <v>0.4584718311869186</v>
+        <v>0.4565636987954415</v>
       </c>
       <c r="P431">
-        <v>0.003400391178639246</v>
+        <v>0.003425487131900061</v>
       </c>
       <c r="Q431" t="s">
         <v>161</v>
@@ -23747,19 +23747,19 @@
         <v>0.9652500909676326</v>
       </c>
       <c r="K432">
-        <v>-0.06615758483094364</v>
+        <v>-0.06706207416244209</v>
       </c>
       <c r="L432">
-        <v>-0.01273362752491134</v>
+        <v>-0.01278320438915138</v>
       </c>
       <c r="M432">
-        <v>0.07889121235585494</v>
+        <v>0.07984527855159351</v>
       </c>
       <c r="N432">
-        <v>0.07889121235585494</v>
+        <v>0.07984527855159351</v>
       </c>
       <c r="O432">
-        <v>0.1577824247117099</v>
+        <v>0.159690557103187</v>
       </c>
       <c r="P432">
         <v>0.001118078428486988</v>
@@ -23844,31 +23844,31 @@
         <v>1</v>
       </c>
       <c r="H434">
-        <v>0.1534013018265283</v>
+        <v>0.1521475546210488</v>
       </c>
       <c r="I434">
-        <v>0.05292339593540685</v>
+        <v>0.05275200210957143</v>
       </c>
       <c r="J434">
-        <v>0.7936753022380648</v>
+        <v>0.7951004432693798</v>
       </c>
       <c r="K434">
-        <v>-0.1708294265962006</v>
+        <v>-0.1720831738016801</v>
       </c>
       <c r="L434">
-        <v>-0.081650381650054</v>
+        <v>-0.08182177547588942</v>
       </c>
       <c r="M434">
-        <v>0.2524798082462546</v>
+        <v>0.2539049492775696</v>
       </c>
       <c r="N434">
-        <v>0.2524798082462546</v>
+        <v>0.2539049492775696</v>
       </c>
       <c r="O434">
-        <v>0.5049596164925092</v>
+        <v>0.5078098985551391</v>
       </c>
       <c r="P434">
-        <v>0.008911950687575365</v>
+        <v>0.008863649744680435</v>
       </c>
       <c r="Q434" t="s">
         <v>151</v>
@@ -23906,19 +23906,19 @@
         <v>0.5496343779922506</v>
       </c>
       <c r="K435">
-        <v>0.1629719749511781</v>
+        <v>0.1642257221566576</v>
       </c>
       <c r="L435">
-        <v>0.08106894929463623</v>
+        <v>0.08124034312047165</v>
       </c>
       <c r="M435">
-        <v>-0.2440409242458143</v>
+        <v>-0.2454660652771292</v>
       </c>
       <c r="N435">
-        <v>0.2440409242458143</v>
+        <v>0.2454660652771292</v>
       </c>
       <c r="O435">
-        <v>0.4880818484916286</v>
+        <v>0.4909321305542584</v>
       </c>
       <c r="P435">
         <v>0.01503330504380863</v>
@@ -24268,31 +24268,31 @@
         <v>1</v>
       </c>
       <c r="H442">
-        <v>0.03623249035627439</v>
+        <v>0.03658342010333564</v>
       </c>
       <c r="I442">
         <v>0</v>
       </c>
       <c r="J442">
-        <v>0.9637675096437255</v>
+        <v>0.9634165798966644</v>
       </c>
       <c r="K442">
-        <v>-0.07187959390378174</v>
+        <v>-0.07152866415672049</v>
       </c>
       <c r="L442">
         <v>-0.01816396661757487</v>
       </c>
       <c r="M442">
-        <v>0.09004356052135642</v>
+        <v>0.08969263077429535</v>
       </c>
       <c r="N442">
-        <v>0.09004356052135642</v>
+        <v>0.08969263077429535</v>
       </c>
       <c r="O442">
-        <v>0.180087121042713</v>
+        <v>0.1793852615485907</v>
       </c>
       <c r="P442">
-        <v>0.001810650955496285</v>
+        <v>0.001827522328430736</v>
       </c>
       <c r="Q442" t="s">
         <v>111</v>
@@ -24321,31 +24321,31 @@
         <v>2</v>
       </c>
       <c r="H443">
-        <v>0.01129290165029998</v>
+        <v>0.01140526178667928</v>
       </c>
       <c r="I443">
         <v>0</v>
       </c>
       <c r="J443">
-        <v>0.9887070983497001</v>
+        <v>0.9885947382133208</v>
       </c>
       <c r="K443">
-        <v>-0.02493958870597441</v>
+        <v>-0.02517815831665636</v>
       </c>
       <c r="L443">
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.02493958870597457</v>
+        <v>0.02517815831665637</v>
       </c>
       <c r="N443">
-        <v>0.02493958870597457</v>
+        <v>0.02517815831665637</v>
       </c>
       <c r="O443">
-        <v>0.04987917741194899</v>
+        <v>0.05035631663331273</v>
       </c>
       <c r="P443">
-        <v>0.0005789452159875282</v>
+        <v>0.000584639055791081</v>
       </c>
       <c r="Q443" t="s">
         <v>111</v>
@@ -24427,31 +24427,31 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <v>0.8621732097238476</v>
+        <v>0.8610923810478183</v>
       </c>
       <c r="I445">
-        <v>0.02543866475526014</v>
+        <v>0.02553193112415788</v>
       </c>
       <c r="J445">
-        <v>0.1123881255208922</v>
+        <v>0.1133756878280237</v>
       </c>
       <c r="K445">
-        <v>0.2409842143735963</v>
+        <v>0.239903385697567</v>
       </c>
       <c r="L445">
-        <v>-0.0868560533983129</v>
+        <v>-0.08676278702941516</v>
       </c>
       <c r="M445">
-        <v>-0.1541281609752835</v>
+        <v>-0.1531405986681519</v>
       </c>
       <c r="N445">
-        <v>0.2409842143735963</v>
+        <v>0.239903385697567</v>
       </c>
       <c r="O445">
-        <v>0.4819684287471927</v>
+        <v>0.4798067713951341</v>
       </c>
       <c r="P445">
-        <v>0.006309829555862723</v>
+        <v>0.006352214431214622</v>
       </c>
       <c r="Q445" t="s">
         <v>153</v>
@@ -24489,19 +24489,19 @@
         <v>0.2629186230288357</v>
       </c>
       <c r="K446">
-        <v>-0.2369896797810513</v>
+        <v>-0.235908851105022</v>
       </c>
       <c r="L446">
-        <v>0.08645918227310799</v>
+        <v>0.08636591590421025</v>
       </c>
       <c r="M446">
-        <v>0.1505304975079435</v>
+        <v>0.1495429352008119</v>
       </c>
       <c r="N446">
-        <v>0.2369896797810513</v>
+        <v>0.235908851105022</v>
       </c>
       <c r="O446">
-        <v>0.4739793595621028</v>
+        <v>0.4718177022100443</v>
       </c>
       <c r="P446">
         <v>0.01367587986549301</v>
@@ -24904,31 +24904,31 @@
         <v>0</v>
       </c>
       <c r="H454">
-        <v>0.2367728852292889</v>
+        <v>0.238467894189769</v>
       </c>
       <c r="I454">
-        <v>0.1039104202977156</v>
+        <v>0.1041120436491491</v>
       </c>
       <c r="J454">
-        <v>0.6593166944729955</v>
+        <v>0.657420062161082</v>
       </c>
       <c r="K454">
-        <v>0.1291605460573093</v>
+        <v>0.1308555550177893</v>
       </c>
       <c r="L454">
-        <v>0.08622869141755847</v>
+        <v>0.08643031476899196</v>
       </c>
       <c r="M454">
-        <v>-0.2153892374748677</v>
+        <v>-0.2172858697867812</v>
       </c>
       <c r="N454">
-        <v>0.2153892374748677</v>
+        <v>0.2172858697867812</v>
       </c>
       <c r="O454">
-        <v>0.4307784749497355</v>
+        <v>0.4345717395735625</v>
       </c>
       <c r="P454">
-        <v>0.01107650492806562</v>
+        <v>0.01111316905946698</v>
       </c>
       <c r="Q454" t="s">
         <v>104</v>
@@ -24957,31 +24957,31 @@
         <v>0</v>
       </c>
       <c r="H455">
-        <v>0.4495899829092911</v>
+        <v>0.4517336121488894</v>
       </c>
       <c r="I455">
-        <v>0.1545161877311437</v>
+        <v>0.1544484962332218</v>
       </c>
       <c r="J455">
-        <v>0.395893829359565</v>
+        <v>0.3938178916178887</v>
       </c>
       <c r="K455">
-        <v>0.2128170976800022</v>
+        <v>0.2132657179591204</v>
       </c>
       <c r="L455">
-        <v>0.05060576743342807</v>
+        <v>0.05033645258407267</v>
       </c>
       <c r="M455">
-        <v>-0.2634228651134304</v>
+        <v>-0.2636021705431932</v>
       </c>
       <c r="N455">
-        <v>0.2634228651134304</v>
+        <v>0.2636021705431932</v>
       </c>
       <c r="O455">
-        <v>0.5268457302268608</v>
+        <v>0.5272043410863863</v>
       </c>
       <c r="P455">
-        <v>0.01371692601937059</v>
+        <v>0.0137108860868412</v>
       </c>
       <c r="Q455" t="s">
         <v>104</v>
@@ -25063,31 +25063,31 @@
         <v>1</v>
       </c>
       <c r="H457">
-        <v>0.2379934954581089</v>
+        <v>0.2363008552312286</v>
       </c>
       <c r="I457">
-        <v>0.09673396539315667</v>
+        <v>0.09651449802025286</v>
       </c>
       <c r="J457">
-        <v>0.6652725391487345</v>
+        <v>0.6671846467485185</v>
       </c>
       <c r="K457">
-        <v>-0.1938398953034944</v>
+        <v>-0.1955325355303746</v>
       </c>
       <c r="L457">
-        <v>-0.06609567043773491</v>
+        <v>-0.06631513781063872</v>
       </c>
       <c r="M457">
-        <v>0.2599355657412293</v>
+        <v>0.2618476733410133</v>
       </c>
       <c r="N457">
-        <v>0.2599355657412293</v>
+        <v>0.2618476733410133</v>
       </c>
       <c r="O457">
-        <v>0.5198711314824587</v>
+        <v>0.5236953466820267</v>
       </c>
       <c r="P457">
-        <v>0.00910026082802856</v>
+        <v>0.009068731567258204</v>
       </c>
       <c r="Q457" t="s">
         <v>106</v>
@@ -25222,31 +25222,31 @@
         <v>1</v>
       </c>
       <c r="H460">
-        <v>0.4235884888460293</v>
+        <v>0.4215016337902031</v>
       </c>
       <c r="I460">
-        <v>0.1659636751196136</v>
+        <v>0.1659676589821058</v>
       </c>
       <c r="J460">
-        <v>0.410447836034357</v>
+        <v>0.4125307072276913</v>
       </c>
       <c r="K460">
-        <v>-0.2696254419255231</v>
+        <v>-0.2717122969813493</v>
       </c>
       <c r="L460">
-        <v>0.07588178248995027</v>
+        <v>0.0758857663524425</v>
       </c>
       <c r="M460">
-        <v>0.1937436594355726</v>
+        <v>0.1958265306289069</v>
       </c>
       <c r="N460">
-        <v>0.2696254419255231</v>
+        <v>0.2717122969813493</v>
       </c>
       <c r="O460">
-        <v>0.5392508838510459</v>
+        <v>0.5434245939626987</v>
       </c>
       <c r="P460">
-        <v>0.01156595230653041</v>
+        <v>0.01156684304589648</v>
       </c>
       <c r="Q460" t="s">
         <v>138</v>
@@ -25275,31 +25275,31 @@
         <v>2</v>
       </c>
       <c r="H461">
-        <v>0.2266519697540754</v>
+        <v>0.225009423049533</v>
       </c>
       <c r="I461">
-        <v>0.09260155451759766</v>
+        <v>0.09238333056469705</v>
       </c>
       <c r="J461">
-        <v>0.6807464757283269</v>
+        <v>0.6826072463857699</v>
       </c>
       <c r="K461">
-        <v>-0.1969365190919539</v>
+        <v>-0.19649221074067</v>
       </c>
       <c r="L461">
-        <v>-0.07336212060201594</v>
+        <v>-0.07358432841740878</v>
       </c>
       <c r="M461">
-        <v>0.2702986396939699</v>
+        <v>0.2700765391580786</v>
       </c>
       <c r="N461">
-        <v>0.2702986396939699</v>
+        <v>0.2700765391580786</v>
       </c>
       <c r="O461">
-        <v>0.5405972793879398</v>
+        <v>0.5401530783161574</v>
       </c>
       <c r="P461">
-        <v>0.008826630972055266</v>
+        <v>0.008794137536191239</v>
       </c>
       <c r="Q461" t="s">
         <v>138</v>
@@ -25381,7 +25381,7 @@
         <v>1</v>
       </c>
       <c r="H463">
-        <v>0.1184241494388372</v>
+        <v>0.1184241494388371</v>
       </c>
       <c r="I463">
         <v>0.02600871287206383</v>
@@ -25646,31 +25646,31 @@
         <v>1</v>
       </c>
       <c r="H468">
-        <v>0.6356730278735574</v>
+        <v>0.6337178948631897</v>
       </c>
       <c r="I468">
-        <v>0.1111223215243124</v>
+        <v>0.1113157154489093</v>
       </c>
       <c r="J468">
-        <v>0.2532046506021302</v>
+        <v>0.254966389687901</v>
       </c>
       <c r="K468">
-        <v>0.2751380541526103</v>
+        <v>0.2731829211422426</v>
       </c>
       <c r="L468">
-        <v>-0.03636275946460493</v>
+        <v>-0.03616936554000802</v>
       </c>
       <c r="M468">
-        <v>-0.2387752946880053</v>
+        <v>-0.2370135556022345</v>
       </c>
       <c r="N468">
-        <v>0.2751380541526103</v>
+        <v>0.2731829211422426</v>
       </c>
       <c r="O468">
-        <v>0.5502761083052206</v>
+        <v>0.5463658422844853</v>
       </c>
       <c r="P468">
-        <v>0.01154353413792365</v>
+        <v>0.01157783514119516</v>
       </c>
       <c r="Q468" t="s">
         <v>145</v>
@@ -25699,31 +25699,31 @@
         <v>2</v>
       </c>
       <c r="H469">
-        <v>0.3769382381094505</v>
+        <v>0.374878353408881</v>
       </c>
       <c r="I469">
-        <v>0.1482646265739063</v>
+        <v>0.1481667330091936</v>
       </c>
       <c r="J469">
-        <v>0.4747971353166432</v>
+        <v>0.4769549135819254</v>
       </c>
       <c r="K469">
-        <v>-0.2587347897641069</v>
+        <v>-0.2588395414543088</v>
       </c>
       <c r="L469">
-        <v>0.0371423050495939</v>
+        <v>0.0368510175602843</v>
       </c>
       <c r="M469">
-        <v>0.221592484714513</v>
+        <v>0.2219885238940245</v>
       </c>
       <c r="N469">
-        <v>0.2587347897641069</v>
+        <v>0.2588395414543088</v>
       </c>
       <c r="O469">
-        <v>0.5174695795282137</v>
+        <v>0.5176790829086175</v>
       </c>
       <c r="P469">
-        <v>0.0135667298989545</v>
+        <v>0.01355615221744192</v>
       </c>
       <c r="Q469" t="s">
         <v>141</v>
@@ -26070,31 +26070,31 @@
         <v>1</v>
       </c>
       <c r="H476">
-        <v>0.1279205600846425</v>
+        <v>0.1290181862590369</v>
       </c>
       <c r="I476">
-        <v>0.03405984603519997</v>
+        <v>0.03418287540271227</v>
       </c>
       <c r="J476">
-        <v>0.8380195938801576</v>
+        <v>0.8367989383382508</v>
       </c>
       <c r="K476">
-        <v>-0.1550601273208582</v>
+        <v>-0.1539625011464639</v>
       </c>
       <c r="L476">
-        <v>-0.08488288524233309</v>
+        <v>-0.08475985587482077</v>
       </c>
       <c r="M476">
-        <v>0.2399430125631914</v>
+        <v>0.2387223570212846</v>
       </c>
       <c r="N476">
-        <v>0.2399430125631914</v>
+        <v>0.2387223570212846</v>
       </c>
       <c r="O476">
-        <v>0.4798860251263827</v>
+        <v>0.4774447140425693</v>
       </c>
       <c r="P476">
-        <v>0.005188878101270845</v>
+        <v>0.005221358804437174</v>
       </c>
       <c r="Q476" t="s">
         <v>113</v>
@@ -26123,31 +26123,31 @@
         <v>2</v>
       </c>
       <c r="H477">
-        <v>0.0460481951926761</v>
+        <v>0.04648954248790427</v>
       </c>
       <c r="I477">
         <v>0</v>
       </c>
       <c r="J477">
-        <v>0.9539518048073239</v>
+        <v>0.9535104575120957</v>
       </c>
       <c r="K477">
-        <v>-0.08187236489196639</v>
+        <v>-0.08252864377113259</v>
       </c>
       <c r="L477">
-        <v>-0.03405984603519997</v>
+        <v>-0.03418287540271227</v>
       </c>
       <c r="M477">
-        <v>0.1159322109271663</v>
+        <v>0.1167115191738449</v>
       </c>
       <c r="N477">
-        <v>0.1159322109271663</v>
+        <v>0.1167115191738449</v>
       </c>
       <c r="O477">
-        <v>0.2318644218543327</v>
+        <v>0.2334230383476898</v>
       </c>
       <c r="P477">
-        <v>0.001626954033784196</v>
+        <v>0.001641787589895171</v>
       </c>
       <c r="Q477" t="s">
         <v>113</v>
@@ -26176,31 +26176,31 @@
         <v>3</v>
       </c>
       <c r="H478">
-        <v>0.01389497221484808</v>
+        <v>0.01403276439330928</v>
       </c>
       <c r="I478">
         <v>0</v>
       </c>
       <c r="J478">
-        <v>0.986105027785152</v>
+        <v>0.9859672356066908</v>
       </c>
       <c r="K478">
-        <v>-0.03215322297782802</v>
+        <v>-0.03245677809459499</v>
       </c>
       <c r="L478">
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.03215322297782808</v>
+        <v>0.03245677809459502</v>
       </c>
       <c r="N478">
-        <v>0.03215322297782808</v>
+        <v>0.03245677809459502</v>
       </c>
       <c r="O478">
-        <v>0.0643064459556561</v>
+        <v>0.06491355618919001</v>
       </c>
       <c r="P478">
-        <v>0.0005074778504443206</v>
+        <v>0.0005124387376589311</v>
       </c>
       <c r="Q478" t="s">
         <v>113</v>
@@ -26282,7 +26282,7 @@
         <v>1</v>
       </c>
       <c r="H480">
-        <v>0.04719315006925236</v>
+        <v>0.04719315006925235</v>
       </c>
       <c r="I480">
         <v>0</v>
@@ -26291,7 +26291,7 @@
         <v>0.9528068499307476</v>
       </c>
       <c r="K480">
-        <v>-0.07912566648791439</v>
+        <v>-0.07912566648791441</v>
       </c>
       <c r="L480">
         <v>-0.03428295509415741</v>
@@ -26306,7 +26306,7 @@
         <v>0.2268172431641437</v>
       </c>
       <c r="P480">
-        <v>0.001998486962479707</v>
+        <v>0.001998486962479706</v>
       </c>
       <c r="Q480" t="s">
         <v>102</v>
@@ -26335,31 +26335,31 @@
         <v>2</v>
       </c>
       <c r="H481">
-        <v>0.01542142398720793</v>
+        <v>0.01527027504124003</v>
       </c>
       <c r="I481">
         <v>0</v>
       </c>
       <c r="J481">
-        <v>0.9845785760127921</v>
+        <v>0.98472972495876</v>
       </c>
       <c r="K481">
-        <v>-0.03177172608204443</v>
+        <v>-0.03192287502801232</v>
       </c>
       <c r="L481">
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.03177172608204448</v>
+        <v>0.03192287502801239</v>
       </c>
       <c r="N481">
-        <v>0.03177172608204448</v>
+        <v>0.03192287502801239</v>
       </c>
       <c r="O481">
-        <v>0.06354345216408891</v>
+        <v>0.06384575005602472</v>
       </c>
       <c r="P481">
-        <v>0.000674826829751764</v>
+        <v>0.0006683152773957734</v>
       </c>
       <c r="Q481" t="s">
         <v>102</v>
@@ -26653,31 +26653,31 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <v>0.3463652114277351</v>
+        <v>0.3483885158261766</v>
       </c>
       <c r="I487">
-        <v>0.1474648233654878</v>
+        <v>0.1475577144839977</v>
       </c>
       <c r="J487">
-        <v>0.5061699652067773</v>
+        <v>0.5040537696898256</v>
       </c>
       <c r="K487">
-        <v>0.1695450611528344</v>
+        <v>0.171568365551276</v>
       </c>
       <c r="L487">
-        <v>0.07856351982731272</v>
+        <v>0.07865641094582262</v>
       </c>
       <c r="M487">
-        <v>-0.2481085809801471</v>
+        <v>-0.2502247764970987</v>
       </c>
       <c r="N487">
-        <v>0.2481085809801471</v>
+        <v>0.2502247764970987</v>
       </c>
       <c r="O487">
-        <v>0.4962171619602942</v>
+        <v>0.5004495529941974</v>
       </c>
       <c r="P487">
-        <v>0.006689747027833066</v>
+        <v>0.006697577335535212</v>
       </c>
       <c r="Q487" t="s">
         <v>152</v>
@@ -26759,31 +26759,31 @@
         <v>0</v>
       </c>
       <c r="H489">
-        <v>0.3111300343730384</v>
+        <v>0.3130742614062856</v>
       </c>
       <c r="I489">
-        <v>0.1308777810001884</v>
+        <v>0.131033838861021</v>
       </c>
       <c r="J489">
-        <v>0.5579921846267731</v>
+        <v>0.5558918997326934</v>
       </c>
       <c r="K489">
-        <v>0.1660669744261783</v>
+        <v>0.1680112014594255</v>
       </c>
       <c r="L489">
-        <v>0.0823525669183616</v>
+        <v>0.08250862477919413</v>
       </c>
       <c r="M489">
-        <v>-0.2484195413445398</v>
+        <v>-0.2505198262386196</v>
       </c>
       <c r="N489">
-        <v>0.2484195413445398</v>
+        <v>0.2505198262386196</v>
       </c>
       <c r="O489">
-        <v>0.4968390826890797</v>
+        <v>0.5010396524772393</v>
       </c>
       <c r="P489">
-        <v>0.006385709222743776</v>
+        <v>0.006397764841442555</v>
       </c>
       <c r="Q489" t="s">
         <v>138</v>
@@ -27077,31 +27077,31 @@
         <v>3</v>
       </c>
       <c r="H495">
-        <v>0.07929510122133503</v>
+        <v>0.08002848047901233</v>
       </c>
       <c r="I495">
         <v>0</v>
       </c>
       <c r="J495">
-        <v>0.920704898778665</v>
+        <v>0.9199715195209877</v>
       </c>
       <c r="K495">
-        <v>-0.1141877618815051</v>
+        <v>-0.1134543826238278</v>
       </c>
       <c r="L495">
         <v>-0.08173414109740076</v>
       </c>
       <c r="M495">
-        <v>0.195921902978906</v>
+        <v>0.1951885237212286</v>
       </c>
       <c r="N495">
-        <v>0.195921902978906</v>
+        <v>0.1951885237212286</v>
       </c>
       <c r="O495">
-        <v>0.3918438059578119</v>
+        <v>0.3903770474424572</v>
       </c>
       <c r="P495">
-        <v>0.005407954677306166</v>
+        <v>0.005453623910461679</v>
       </c>
       <c r="Q495" t="s">
         <v>131</v>
@@ -27130,31 +27130,31 @@
         <v>4</v>
       </c>
       <c r="H496">
-        <v>0.02651283290828481</v>
+        <v>0.02677223800565547</v>
       </c>
       <c r="I496">
         <v>0</v>
       </c>
       <c r="J496">
-        <v>0.9734871670917151</v>
+        <v>0.9732277619943445</v>
       </c>
       <c r="K496">
-        <v>-0.05278226831305022</v>
+        <v>-0.05325624247335686</v>
       </c>
       <c r="L496">
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.05278226831305011</v>
+        <v>0.05325624247335681</v>
       </c>
       <c r="N496">
-        <v>0.05278226831305022</v>
+        <v>0.05325624247335686</v>
       </c>
       <c r="O496">
-        <v>0.1055645366261003</v>
+        <v>0.1065124849467137</v>
       </c>
       <c r="P496">
-        <v>0.001911844636997201</v>
+        <v>0.001930035946505484</v>
       </c>
       <c r="Q496" t="s">
         <v>131</v>
@@ -27289,31 +27289,31 @@
         <v>1</v>
       </c>
       <c r="H499">
-        <v>0.1648662313248162</v>
+        <v>0.1661956409133528</v>
       </c>
       <c r="I499">
-        <v>0.06421999243528954</v>
+        <v>0.06440921607543709</v>
       </c>
       <c r="J499">
-        <v>0.7709137762398943</v>
+        <v>0.76939514301121</v>
       </c>
       <c r="K499">
-        <v>0.09910670473927807</v>
+        <v>0.1004361143278146</v>
       </c>
       <c r="L499">
-        <v>0.06421999243528954</v>
+        <v>0.06440921607543709</v>
       </c>
       <c r="M499">
-        <v>-0.1633266971745676</v>
+        <v>-0.1648453304032519</v>
       </c>
       <c r="N499">
-        <v>0.1633266971745676</v>
+        <v>0.1648453304032519</v>
       </c>
       <c r="O499">
-        <v>0.3266533943491352</v>
+        <v>0.3296906608065036</v>
       </c>
       <c r="P499">
-        <v>0.01386618029421888</v>
+        <v>0.01393561391617434</v>
       </c>
       <c r="Q499" t="s">
         <v>140</v>
@@ -27342,31 +27342,31 @@
         <v>1</v>
       </c>
       <c r="H500">
-        <v>0.345141712868857</v>
+        <v>0.347159818857895</v>
       </c>
       <c r="I500">
-        <v>0.1445042599044795</v>
+        <v>0.1446113892249444</v>
       </c>
       <c r="J500">
-        <v>0.5103540272266635</v>
+        <v>0.5082287919171605</v>
       </c>
       <c r="K500">
-        <v>0.1802754815440407</v>
+        <v>0.1809641779445423</v>
       </c>
       <c r="L500">
-        <v>0.08028426746919</v>
+        <v>0.08020217314950728</v>
       </c>
       <c r="M500">
-        <v>-0.2605597490132309</v>
+        <v>-0.2611663510940495</v>
       </c>
       <c r="N500">
-        <v>0.2605597490132309</v>
+        <v>0.2611663510940495</v>
       </c>
       <c r="O500">
-        <v>0.5211194980264616</v>
+        <v>0.522332702188099</v>
       </c>
       <c r="P500">
-        <v>0.02220498088151615</v>
+        <v>0.02223226301271884</v>
       </c>
       <c r="Q500" t="s">
         <v>140</v>
@@ -27501,31 +27501,31 @@
         <v>2</v>
       </c>
       <c r="H503">
-        <v>0.09359739109972451</v>
+        <v>0.09444694802247257</v>
       </c>
       <c r="I503">
-        <v>0.004935422937861349</v>
+        <v>0.004955194136425821</v>
       </c>
       <c r="J503">
-        <v>0.9014671859624142</v>
+        <v>0.9005978578411017</v>
       </c>
       <c r="K503">
-        <v>-0.1334767601423247</v>
+        <v>-0.1326272032195767</v>
       </c>
       <c r="L503">
-        <v>-0.0900872014965278</v>
+        <v>-0.09006743029796332</v>
       </c>
       <c r="M503">
-        <v>0.2235639616388524</v>
+        <v>0.2226946335175399</v>
       </c>
       <c r="N503">
-        <v>0.2235639616388524</v>
+        <v>0.2226946335175399</v>
       </c>
       <c r="O503">
-        <v>0.4471279232777049</v>
+        <v>0.4453892670350799</v>
       </c>
       <c r="P503">
-        <v>0.003968268502505686</v>
+        <v>0.003999527078051768</v>
       </c>
       <c r="Q503" t="s">
         <v>114</v>
@@ -27554,31 +27554,31 @@
         <v>2</v>
       </c>
       <c r="H504">
-        <v>0.220544114245233</v>
+        <v>0.2221656579090334</v>
       </c>
       <c r="I504">
-        <v>0.09417350138760087</v>
+        <v>0.09438435625671997</v>
       </c>
       <c r="J504">
-        <v>0.685282384367166</v>
+        <v>0.6834499858342467</v>
       </c>
       <c r="K504">
-        <v>0.1269467231455084</v>
+        <v>0.1277187098865608</v>
       </c>
       <c r="L504">
-        <v>0.08923807844973952</v>
+        <v>0.08942916212029414</v>
       </c>
       <c r="M504">
-        <v>-0.2161848015952481</v>
+        <v>-0.217147872006855</v>
       </c>
       <c r="N504">
-        <v>0.2161848015952481</v>
+        <v>0.217147872006855</v>
       </c>
       <c r="O504">
-        <v>0.4323696031904961</v>
+        <v>0.43429574401371</v>
       </c>
       <c r="P504">
-        <v>0.01050843775520526</v>
+        <v>0.01054733623562264</v>
       </c>
       <c r="Q504" t="s">
         <v>164</v>
@@ -27766,31 +27766,31 @@
         <v>1</v>
       </c>
       <c r="H508">
-        <v>0.2190604679359795</v>
+        <v>0.2174531145841303</v>
       </c>
       <c r="I508">
-        <v>0.09009896521979664</v>
+        <v>0.08988282973075604</v>
       </c>
       <c r="J508">
-        <v>0.6908405668442239</v>
+        <v>0.6926640556851136</v>
       </c>
       <c r="K508">
-        <v>-0.1945254813714383</v>
+        <v>-0.1961328347232875</v>
       </c>
       <c r="L508">
-        <v>-0.0755247310672288</v>
+        <v>-0.07574086655626941</v>
       </c>
       <c r="M508">
-        <v>0.2700502124386672</v>
+        <v>0.2718737012795568</v>
       </c>
       <c r="N508">
-        <v>0.2700502124386672</v>
+        <v>0.2718737012795568</v>
       </c>
       <c r="O508">
-        <v>0.5401004248773342</v>
+        <v>0.5437474025591138</v>
       </c>
       <c r="P508">
-        <v>0.01209791849405334</v>
+        <v>0.01205171141064341</v>
       </c>
       <c r="Q508" t="s">
         <v>153</v>
@@ -27819,31 +27819,31 @@
         <v>1</v>
       </c>
       <c r="H509">
-        <v>0.4177519053400578</v>
+        <v>0.4156688522879476</v>
       </c>
       <c r="I509">
-        <v>0.1656356293487506</v>
+        <v>0.1656296626029538</v>
       </c>
       <c r="J509">
-        <v>0.4166124653111916</v>
+        <v>0.4187014851090986</v>
       </c>
       <c r="K509">
-        <v>0.1986914374040784</v>
+        <v>0.1982157377038173</v>
       </c>
       <c r="L509">
-        <v>0.07553666412895395</v>
+        <v>0.07574683287219772</v>
       </c>
       <c r="M509">
-        <v>-0.2742281015330323</v>
+        <v>-0.273962570576015</v>
       </c>
       <c r="N509">
-        <v>0.2742281015330323</v>
+        <v>0.273962570576015</v>
       </c>
       <c r="O509">
-        <v>0.5484562030660646</v>
+        <v>0.5479251411520301</v>
       </c>
       <c r="P509">
-        <v>0.01619028023465289</v>
+        <v>0.01619010001962078</v>
       </c>
       <c r="Q509" t="s">
         <v>155</v>
@@ -27872,31 +27872,31 @@
         <v>1</v>
       </c>
       <c r="H510">
-        <v>0.694133597586381</v>
+        <v>0.6923287873430385</v>
       </c>
       <c r="I510">
-        <v>0.09129641800494892</v>
+        <v>0.09150760574134459</v>
       </c>
       <c r="J510">
-        <v>0.21456998440867</v>
+        <v>0.2161636069156168</v>
       </c>
       <c r="K510">
-        <v>0.2763816922463232</v>
+        <v>0.2766599350550908</v>
       </c>
       <c r="L510">
-        <v>-0.07433921134380167</v>
+        <v>-0.07412205686160916</v>
       </c>
       <c r="M510">
-        <v>-0.2020424809025216</v>
+        <v>-0.2025378781934818</v>
       </c>
       <c r="N510">
-        <v>0.2763816922463232</v>
+        <v>0.2766599350550908</v>
       </c>
       <c r="O510">
-        <v>0.5527633844926465</v>
+        <v>0.5533198701101818</v>
       </c>
       <c r="P510">
-        <v>0.01202452830320303</v>
+        <v>0.01207060564248091</v>
       </c>
       <c r="Q510" t="s">
         <v>155</v>
@@ -27925,31 +27925,31 @@
         <v>2</v>
       </c>
       <c r="H511">
-        <v>0.421918461723899</v>
+        <v>0.4198351084799677</v>
       </c>
       <c r="I511">
-        <v>0.1656475641301357</v>
+        <v>0.1656415965244624</v>
       </c>
       <c r="J511">
-        <v>0.4124339741459653</v>
+        <v>0.4145232949955699</v>
       </c>
       <c r="K511">
-        <v>-0.272215135862482</v>
+        <v>-0.2724936788630708</v>
       </c>
       <c r="L511">
-        <v>0.07435114612518681</v>
+        <v>0.07413399078311783</v>
       </c>
       <c r="M511">
-        <v>0.1978639897372953</v>
+        <v>0.1983596880799531</v>
       </c>
       <c r="N511">
-        <v>0.272215135862482</v>
+        <v>0.2724936788630708</v>
       </c>
       <c r="O511">
-        <v>0.5444302717249641</v>
+        <v>0.5449873577261417</v>
       </c>
       <c r="P511">
-        <v>0.01618928663655999</v>
+        <v>0.01619000913948591</v>
       </c>
       <c r="Q511" t="s">
         <v>153</v>
@@ -27987,19 +27987,19 @@
         <v>0.6908405668442239</v>
       </c>
       <c r="K512">
-        <v>-0.2028579937879195</v>
+        <v>-0.2007746405439882</v>
       </c>
       <c r="L512">
-        <v>-0.07554859891033909</v>
+        <v>-0.07554263130466578</v>
       </c>
       <c r="M512">
-        <v>0.2784065926982586</v>
+        <v>0.276317271848654</v>
       </c>
       <c r="N512">
-        <v>0.2784065926982586</v>
+        <v>0.276317271848654</v>
       </c>
       <c r="O512">
-        <v>0.5568131853965173</v>
+        <v>0.5526345436973079</v>
       </c>
       <c r="P512">
         <v>0.01209791849405334</v>
@@ -28084,31 +28084,31 @@
         <v>1</v>
       </c>
       <c r="H514">
-        <v>0.03713237795397206</v>
+        <v>0.03677647188799849</v>
       </c>
       <c r="I514">
         <v>0</v>
       </c>
       <c r="J514">
-        <v>0.9628676220460279</v>
+        <v>0.9632235281120015</v>
       </c>
       <c r="K514">
-        <v>-0.06801098706248179</v>
+        <v>-0.06836689312845537</v>
       </c>
       <c r="L514">
         <v>-0.01526341703594289</v>
       </c>
       <c r="M514">
-        <v>0.08327440409842468</v>
+        <v>0.08363031016439826</v>
       </c>
       <c r="N514">
-        <v>0.08327440409842468</v>
+        <v>0.08363031016439826</v>
       </c>
       <c r="O514">
-        <v>0.1665488081968494</v>
+        <v>0.1672606203287965</v>
       </c>
       <c r="P514">
-        <v>0.001589047309398019</v>
+        <v>0.001574398355709766</v>
       </c>
       <c r="Q514" t="s">
         <v>125</v>
@@ -28137,31 +28137,31 @@
         <v>2</v>
       </c>
       <c r="H515">
-        <v>0.01204819363631435</v>
+        <v>0.0119297353859103</v>
       </c>
       <c r="I515">
         <v>0</v>
       </c>
       <c r="J515">
-        <v>0.9879518063636857</v>
+        <v>0.9880702646140898</v>
       </c>
       <c r="K515">
-        <v>-0.02508418431765771</v>
+        <v>-0.0248467365020882</v>
       </c>
       <c r="L515">
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.0250841843176578</v>
+        <v>0.02484673650208824</v>
       </c>
       <c r="N515">
-        <v>0.0250841843176578</v>
+        <v>0.02484673650208824</v>
       </c>
       <c r="O515">
-        <v>0.05016836863531551</v>
+        <v>0.04969347300417644</v>
       </c>
       <c r="P515">
-        <v>0.0005290237629518302</v>
+        <v>0.0005238851910903303</v>
       </c>
       <c r="Q515" t="s">
         <v>125</v>
@@ -28349,31 +28349,31 @@
         <v>1</v>
       </c>
       <c r="H519">
-        <v>0.3835716629649573</v>
+        <v>0.385641873226262</v>
       </c>
       <c r="I519">
-        <v>0.1594327505136053</v>
+        <v>0.1594712232104248</v>
       </c>
       <c r="J519">
-        <v>0.4569955865214373</v>
+        <v>0.4548869035633132</v>
       </c>
       <c r="K519">
-        <v>0.1818557033256531</v>
+        <v>0.1839259135869578</v>
       </c>
       <c r="L519">
-        <v>0.07686394317415574</v>
+        <v>0.07690241587097527</v>
       </c>
       <c r="M519">
-        <v>-0.2587196464998091</v>
+        <v>-0.2608283294579332</v>
       </c>
       <c r="N519">
-        <v>0.2587196464998091</v>
+        <v>0.2608283294579332</v>
       </c>
       <c r="O519">
-        <v>0.5174392929996179</v>
+        <v>0.5216566589158662</v>
       </c>
       <c r="P519">
-        <v>0.01374686691853091</v>
+        <v>0.0137539373233087</v>
       </c>
       <c r="Q519" t="s">
         <v>104</v>

--- a/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
+++ b/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
@@ -3978,19 +3978,19 @@
         <v>0.990033213216553</v>
       </c>
       <c r="K59">
-        <v>1.375702745089538E-05</v>
+        <v>1.375702745089538e-05</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>-1.375702745098906E-05</v>
+        <v>-1.375702745098906e-05</v>
       </c>
       <c r="N59">
-        <v>1.375702745098906E-05</v>
+        <v>1.375702745098906e-05</v>
       </c>
       <c r="O59">
-        <v>2.751405490188444E-05</v>
+        <v>2.751405490188444e-05</v>
       </c>
       <c r="P59">
         <v>0.0005116455526860893</v>
@@ -9543,19 +9543,19 @@
         <v>0.009909004180185577</v>
       </c>
       <c r="K164">
-        <v>1.732822515287946E-05</v>
+        <v>1.732822515287946e-05</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
       <c r="M164">
-        <v>-1.732822515302691E-05</v>
+        <v>-1.732822515302691e-05</v>
       </c>
       <c r="N164">
-        <v>1.732822515302691E-05</v>
+        <v>1.732822515302691e-05</v>
       </c>
       <c r="O164">
-        <v>3.465645030590637E-05</v>
+        <v>3.465645030590637e-05</v>
       </c>
       <c r="P164">
         <v>0.0008720725170082353</v>
@@ -20090,19 +20090,19 @@
         <v>0.9900842579051375</v>
       </c>
       <c r="K363">
-        <v>-3.189640820829356E-05</v>
+        <v>-3.189640820829356e-05</v>
       </c>
       <c r="L363">
         <v>0</v>
       </c>
       <c r="M363">
-        <v>3.189640820822071E-05</v>
+        <v>3.189640820822071e-05</v>
       </c>
       <c r="N363">
-        <v>3.189640820829356E-05</v>
+        <v>3.189640820829356e-05</v>
       </c>
       <c r="O363">
-        <v>6.379281641651427E-05</v>
+        <v>6.379281641651427e-05</v>
       </c>
       <c r="P363">
         <v>0.0007272163076718971</v>
@@ -20567,19 +20567,19 @@
         <v>0.9899182874725039</v>
       </c>
       <c r="K372">
-        <v>3.296115947306125E-05</v>
+        <v>3.296115947306125e-05</v>
       </c>
       <c r="L372">
         <v>0</v>
       </c>
       <c r="M372">
-        <v>-3.29611594730439E-05</v>
+        <v>-3.29611594730439e-05</v>
       </c>
       <c r="N372">
-        <v>3.296115947306125E-05</v>
+        <v>3.296115947306125e-05</v>
       </c>
       <c r="O372">
-        <v>6.592231894610515E-05</v>
+        <v>6.592231894610515e-05</v>
       </c>
       <c r="P372">
         <v>0.0004435587377781805</v>

--- a/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
+++ b/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc.xlsx
@@ -3978,19 +3978,19 @@
         <v>0.990033213216553</v>
       </c>
       <c r="K59">
-        <v>1.375702745089538e-05</v>
+        <v>1.375702745089538E-05</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>-1.375702745098906e-05</v>
+        <v>-1.375702745098906E-05</v>
       </c>
       <c r="N59">
-        <v>1.375702745098906e-05</v>
+        <v>1.375702745098906E-05</v>
       </c>
       <c r="O59">
-        <v>2.751405490188444e-05</v>
+        <v>2.751405490188444E-05</v>
       </c>
       <c r="P59">
         <v>0.0005116455526860893</v>
@@ -9543,19 +9543,19 @@
         <v>0.009909004180185577</v>
       </c>
       <c r="K164">
-        <v>1.732822515287946e-05</v>
+        <v>1.732822515287946E-05</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
       <c r="M164">
-        <v>-1.732822515302691e-05</v>
+        <v>-1.732822515302691E-05</v>
       </c>
       <c r="N164">
-        <v>1.732822515302691e-05</v>
+        <v>1.732822515302691E-05</v>
       </c>
       <c r="O164">
-        <v>3.465645030590637e-05</v>
+        <v>3.465645030590637E-05</v>
       </c>
       <c r="P164">
         <v>0.0008720725170082353</v>
@@ -20090,19 +20090,19 @@
         <v>0.9900842579051375</v>
       </c>
       <c r="K363">
-        <v>-3.189640820829356e-05</v>
+        <v>-3.189640820829356E-05</v>
       </c>
       <c r="L363">
         <v>0</v>
       </c>
       <c r="M363">
-        <v>3.189640820822071e-05</v>
+        <v>3.189640820822071E-05</v>
       </c>
       <c r="N363">
-        <v>3.189640820829356e-05</v>
+        <v>3.189640820829356E-05</v>
       </c>
       <c r="O363">
-        <v>6.379281641651427e-05</v>
+        <v>6.379281641651427E-05</v>
       </c>
       <c r="P363">
         <v>0.0007272163076718971</v>
@@ -20567,19 +20567,19 @@
         <v>0.9899182874725039</v>
       </c>
       <c r="K372">
-        <v>3.296115947306125e-05</v>
+        <v>3.296115947306125E-05</v>
       </c>
       <c r="L372">
         <v>0</v>
       </c>
       <c r="M372">
-        <v>-3.29611594730439e-05</v>
+        <v>-3.29611594730439E-05</v>
       </c>
       <c r="N372">
-        <v>3.296115947306125e-05</v>
+        <v>3.296115947306125E-05</v>
       </c>
       <c r="O372">
-        <v>6.592231894610515e-05</v>
+        <v>6.592231894610515E-05</v>
       </c>
       <c r="P372">
         <v>0.0004435587377781805</v>
